--- a/config/excel/SkillTimeline.xlsx
+++ b/config/excel/SkillTimeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2A4C8F-3486-4AF0-A824-AD97B0E424FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D78DD1-20DD-4E16-B14C-38FA000C07A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTimeLine" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="130">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,10 +293,6 @@
   </si>
   <si>
     <t>男主-技能2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男主-技能3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -328,10 +324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>男主-技能4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>atk1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,14 +349,6 @@
   </si>
   <si>
     <t>梅林-技能2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅林-技能3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅林-技能4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -459,18 +443,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>扫把-技能2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼白-技能2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蝙蝠-技能2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fx_PLMXS_atk_slash1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -492,10 +464,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>洛基-技能4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>atk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -543,6 +511,46 @@
   </si>
   <si>
     <t>Fx_luoji_atk_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-奥义1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-奥义技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-奥义技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫把-技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼白-技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝙蝠-技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基-技能1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,7 +558,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,6 +577,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -724,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -792,6 +808,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1173,8 +1192,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:T27" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
-  <autoFilter ref="C1:T27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:T28" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+  <autoFilter ref="C1:T28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TimeLineID" dataDxfId="17"/>
     <tableColumn id="7" xr3:uid="{6EC15DF4-B9C6-44B1-9114-5D0E6483D93B}" name="备注" dataDxfId="16"/>
@@ -1462,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1524,10 +1543,10 @@
         <v>61</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>48</v>
@@ -1545,10 +1564,10 @@
         <v>26</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T1" s="17" t="s">
         <v>58</v>
@@ -1570,22 +1589,22 @@
         <v>63</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>55</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N2" s="11" t="s">
         <v>44</v>
@@ -1600,10 +1619,10 @@
         <v>29</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S2" s="22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="T2" s="15" t="s">
         <v>40</v>
@@ -1636,10 +1655,10 @@
         <v>57</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>49</v>
@@ -1657,7 +1676,7 @@
         <v>53</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="S3" s="14" t="s">
         <v>35</v>
@@ -1684,20 +1703,20 @@
         <v>20</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
       <c r="M4" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>46</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>28</v>
@@ -1706,7 +1725,7 @@
         <v>29</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="S4" s="14" t="s">
         <v>43</v>
@@ -1765,10 +1784,10 @@
         <v>51</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>51</v>
@@ -1786,7 +1805,7 @@
         <v>23</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="S6" s="14" t="s">
         <v>14</v>
@@ -1800,7 +1819,7 @@
         <v>1001</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -1809,10 +1828,10 @@
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1828,7 +1847,7 @@
         <v>17</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>34</v>
@@ -1848,7 +1867,7 @@
         <v>1002</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E8" s="4">
         <v>3</v>
@@ -1857,7 +1876,7 @@
         <v>4.633</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1867,56 +1886,34 @@
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C9" s="2">
-        <v>2001</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
+      <c r="C9" s="23">
+        <v>1004</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3</v>
       </c>
       <c r="F9" s="2">
-        <v>1</v>
+        <v>5.367</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="N9" s="2">
-        <v>1</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1">
-        <v>0.2</v>
-      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="2">
-        <v>2002</v>
+        <v>20011</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1925,17 +1922,17 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="N10" s="2">
         <v>1</v>
@@ -1944,182 +1941,203 @@
         <v>17</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R10" s="2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1">
         <v>0.2</v>
       </c>
-      <c r="T10" s="1">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C11" s="2">
+        <v>20012</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C11" s="4">
-        <v>2003</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="4">
-        <v>3</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2</v>
+      <c r="F11" s="2">
+        <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>75</v>
+        <v>31</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="M11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="4">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="E12" s="4">
         <v>3</v>
       </c>
-      <c r="F12" s="2">
-        <v>3</v>
+      <c r="F12" s="4">
+        <v>2.8330000000000002</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+        <v>73</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C13" s="2">
-        <v>2005</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="C13" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="4">
         <v>3</v>
       </c>
-      <c r="F13" s="2">
-        <v>3</v>
+      <c r="F13" s="4">
+        <v>2.8330000000000002</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="2">
-        <v>3001</v>
+        <v>2004</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="E14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" s="2">
-        <v>2</v>
+        <v>7.3330000000000002</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="2">
-        <v>10</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="N14" s="2">
-        <v>1</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="T14" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="2">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" s="2">
-        <v>3.8330000000000002</v>
+        <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="2">
+        <v>10</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="R15" s="2"/>
+      <c r="S15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C16" s="2">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="E16" s="2">
         <v>3</v>
@@ -2128,7 +2146,7 @@
         <v>3.8330000000000002</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -2139,326 +2157,327 @@
       <c r="R16" s="2"/>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C17" s="4">
+      <c r="C17" s="2">
+        <v>3003</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3.8330000000000002</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C18" s="4">
         <v>3004</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="D18" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="4">
         <v>3</v>
       </c>
-      <c r="F17" s="4">
-        <v>3.8330000000000002</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C18" s="2">
-        <v>4001</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2">
-        <v>2.0329999999999999</v>
+      <c r="F18" s="4">
+        <v>6.7</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" s="2">
-        <v>10</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2">
-        <v>1</v>
-      </c>
-      <c r="N18" s="2">
-        <v>1</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="1">
-        <v>0.2</v>
-      </c>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="2">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E19" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2">
-        <v>2.9670000000000001</v>
+        <v>2.0329999999999999</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="2">
+        <v>10</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="M19" s="2">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="2">
-        <v>5001</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
+        <v>4002</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3</v>
       </c>
       <c r="F20" s="2">
-        <v>1.167</v>
+        <v>2.9670000000000001</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="13"/>
+        <v>98</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N20" s="2">
-        <v>1</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="R20" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="S20" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="T20" s="1">
-        <v>1</v>
-      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="2">
-        <v>5002</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="4">
-        <v>3</v>
+        <v>5001</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
       </c>
       <c r="F21" s="2">
-        <v>2.5670000000000002</v>
+        <v>1.167</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>102</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="H21" s="13"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="M21" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="T21" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="2">
-        <v>6001</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1</v>
+        <v>5002</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3</v>
       </c>
       <c r="F22" s="2">
-        <v>1.4670000000000001</v>
+        <v>2.5670000000000002</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H22" s="13"/>
+        <v>98</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="N22" s="2">
-        <v>1</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="R22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="S22" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="T22" s="1">
-        <v>1</v>
-      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="2">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="E23" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2">
-        <v>2.2669999999999999</v>
+        <v>1.4670000000000001</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>102</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="H23" s="13"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="M23" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="T23" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="2">
-        <v>8001</v>
+        <v>6002</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="E24" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" s="2">
         <v>2.2669999999999999</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="2">
-        <v>1</v>
-      </c>
-      <c r="N24" s="2">
-        <v>1</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R24" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="S24" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="T24" s="1">
-        <v>1</v>
-      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="2">
-        <v>8002</v>
+        <v>8001</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E25" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25" s="2">
-        <v>4</v>
+        <v>2.2669999999999999</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="M25" s="2">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R25" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="T25" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="2">
-        <v>8003</v>
+        <v>8002</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E26" s="2">
         <v>3</v>
       </c>
       <c r="F26" s="2">
-        <v>6.6669999999999998</v>
+        <v>4</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -2468,34 +2487,57 @@
       <c r="N26" s="2"/>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C27" s="4">
-        <v>8004</v>
+      <c r="C27" s="2">
+        <v>8003</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="4">
+        <v>106</v>
+      </c>
+      <c r="E27" s="2">
         <v>3</v>
       </c>
       <c r="F27" s="2">
         <v>6.6669999999999998</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
+        <v>110</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C28" s="4">
+        <v>8004</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="4">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2">
+        <v>6.6669999999999998</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="21"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillTimeline.xlsx
+++ b/config/excel/SkillTimeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D78DD1-20DD-4E16-B14C-38FA000C07A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6A68B2-0444-4436-9C93-3B0AEF42F939}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTimeLine" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="134">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,10 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>受击停顿时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,21 +253,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1：固定范围
-2：单体弹道
-3：技能表演</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>子弹特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>弹道速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表演类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -460,10 +446,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>洛基-技能3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>atk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -551,6 +533,43 @@
   </si>
   <si>
     <t>洛基-技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：固定范围(普攻)
+2：单体弹道(普攻)
+3：技能表演</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景表演</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-战斗场景
+2-虚拟环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：固定范围(普攻)
+2：单体弹道(普攻)
+3：技能表演</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基-奥义技</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -740,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -811,11 +830,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1192,27 +1237,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:T28" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
-  <autoFilter ref="C1:T28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TimeLineID" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{6EC15DF4-B9C6-44B1-9114-5D0E6483D93B}" name="备注" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="表演类型" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="持续时间" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="表演ID" dataDxfId="13"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="施法特效" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="子弹特效" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="弹道速度" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{7DE3E249-5265-46EC-A7D5-79ECF44EF87B}" name="弹道起始偏移" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{365F177B-4E80-4AE7-8031-13055E21DD6C}" name="弹道高度" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="effect时间点" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="effect顺序2" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="被击动作编号" dataDxfId="5"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="受击特效" dataDxfId="4"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="插槽ID" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{05C48C32-C296-4A34-BC9C-0D52C9414CA3}" name="受伤状态" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="受击停帧" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="击退距离" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:U28" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+  <autoFilter ref="C1:U28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TimeLineID" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{6EC15DF4-B9C6-44B1-9114-5D0E6483D93B}" name="备注" dataDxfId="17"/>
+    <tableColumn id="16" xr3:uid="{F80DBC4B-F22C-476A-B707-5F859B091855}" name="场景表演" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="动画类型" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="持续时间" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="表演ID" dataDxfId="14"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="施法特效" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="子弹特效" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="弹道速度" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{7DE3E249-5265-46EC-A7D5-79ECF44EF87B}" name="弹道起始偏移" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{365F177B-4E80-4AE7-8031-13055E21DD6C}" name="弹道高度" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="effect时间点" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="effect顺序2" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="被击动作编号" dataDxfId="6"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="受击特效" dataDxfId="5"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="插槽ID" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{05C48C32-C296-4A34-BC9C-0D52C9414CA3}" name="受伤状态" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="受击停帧" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="击退距离" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1481,37 +1527,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="10.625" style="1"/>
-    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.125" style="1" customWidth="1"/>
-    <col min="15" max="16" width="15.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="10.625" style="1"/>
+    <col min="1" max="5" width="10.625" style="1"/>
+    <col min="6" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.125" style="1" customWidth="1"/>
+    <col min="16" max="17" width="15.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1522,113 +1568,119 @@
         <v>30</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="J1" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>47</v>
       </c>
       <c r="O1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="T1" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="20"/>
       <c r="E2" s="12" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>68</v>
+      <c r="H2" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>70</v>
+        <v>112</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="22" t="s">
-        <v>88</v>
-      </c>
       <c r="S2" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="T2" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="T2" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="U2" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1637,55 +1689,58 @@
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="L3" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="R3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="S3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="T3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="U3" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1693,48 +1748,51 @@
         <v>6</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="18"/>
+      <c r="I4" s="18" t="s">
+        <v>68</v>
+      </c>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
-      <c r="M4" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="P4" s="6" t="s">
+      <c r="M4" s="18"/>
+      <c r="N4" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>43</v>
+      <c r="S4" s="18" t="s">
+        <v>91</v>
       </c>
       <c r="T4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1742,7 +1800,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="6"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -1754,10 +1812,11 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="14"/>
+      <c r="S5" s="6"/>
       <c r="T5" s="14"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U5" s="14"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1766,778 +1825,851 @@
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="J6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="6" t="s">
+      <c r="Q6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="R6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="R6" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="S6" s="14" t="s">
-        <v>14</v>
+      <c r="S6" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="T6" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U6" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="2">
         <v>1001</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
+        <v>92</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
         <v>2</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="I7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>96</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2">
+      <c r="M7" s="2"/>
+      <c r="N7" s="2">
         <v>0.63329999999999997</v>
       </c>
-      <c r="N7" s="2">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>0.2</v>
       </c>
-      <c r="S7" s="1">
+      <c r="T7" s="1">
         <v>0.2</v>
       </c>
-      <c r="T7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="2">
         <v>1002</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="4">
+        <v>93</v>
+      </c>
+      <c r="E8" s="25">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
         <v>3</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>4.633</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="23">
         <v>1004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="4">
+        <v>116</v>
+      </c>
+      <c r="E9" s="25">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
         <v>3</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>5.367</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="2">
         <v>20011</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="2">
+        <v>62</v>
+      </c>
+      <c r="E10" s="26">
         <v>1</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="I10" s="2"/>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2">
+      <c r="M10" s="2"/>
+      <c r="N10" s="2">
         <v>0.1</v>
       </c>
-      <c r="N10" s="2">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="2">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1">
+      <c r="S10" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T10" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="2">
         <v>20012</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="2">
+        <v>63</v>
+      </c>
+      <c r="E11" s="26">
         <v>1</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="13" t="s">
+        <v>81</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2">
+      <c r="M11" s="2"/>
+      <c r="N11" s="2">
         <v>0.5</v>
       </c>
-      <c r="N11" s="2">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Q11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R11" s="2">
+      <c r="S11" s="2">
         <v>0.2</v>
       </c>
-      <c r="S11" s="1">
+      <c r="T11" s="1">
         <v>0.2</v>
       </c>
-      <c r="T11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="4">
         <v>2002</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" s="4">
+        <v>120</v>
+      </c>
+      <c r="E12" s="25">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
         <v>3</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>2.8330000000000002</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="Q12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="4">
         <v>2003</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="4">
+        <v>64</v>
+      </c>
+      <c r="E13" s="25">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
         <v>3</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>2.8330000000000002</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="19"/>
+      <c r="H13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="13"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
-      <c r="M13" s="2"/>
+      <c r="M13" s="19"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="13"/>
+      <c r="O13" s="2"/>
       <c r="P13" s="13"/>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="13"/>
       <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="2">
         <v>2004</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="2">
+        <v>119</v>
+      </c>
+      <c r="E14" s="26">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
         <v>3</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>7.3330000000000002</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O14" s="2"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="2">
         <v>3001</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="E15" s="26">
+        <v>1</v>
       </c>
       <c r="F15" s="2">
         <v>2</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" s="2">
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="2">
         <v>10</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1.2</v>
       </c>
       <c r="L15" s="2">
         <v>1.2</v>
       </c>
       <c r="M15" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="N15" s="2">
         <v>0.9</v>
       </c>
-      <c r="N15" s="2">
-        <v>1</v>
-      </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Q15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R15" s="2"/>
-      <c r="S15" s="1">
+      <c r="S15" s="2">
         <v>0.2</v>
       </c>
       <c r="T15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+      <c r="U15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C16" s="2">
         <v>3002</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="2">
+        <v>121</v>
+      </c>
+      <c r="E16" s="26">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
         <v>3</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>3.8330000000000002</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="R16" s="2"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="O16" s="2"/>
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="2">
         <v>3003</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="2">
+        <v>76</v>
+      </c>
+      <c r="E17" s="26">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
         <v>3</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <v>3.8330000000000002</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="R17" s="2"/>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="O17" s="2"/>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="4">
         <v>3004</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="4">
+        <v>118</v>
+      </c>
+      <c r="E18" s="25">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4">
         <v>3</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>6.7</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="4"/>
+      <c r="H18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="21"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="21"/>
+      <c r="O18" s="4"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="2"/>
       <c r="T18" s="21"/>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="21"/>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="2">
         <v>4001</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2">
+        <v>99</v>
+      </c>
+      <c r="E19" s="25">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
         <v>2.0329999999999999</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J19" s="2">
+      <c r="H19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="2">
         <v>10</v>
       </c>
-      <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="2">
-        <v>1</v>
-      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2">
         <v>1</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q19" s="2" t="s">
+      <c r="Q19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R19" s="2"/>
-      <c r="S19" s="1">
+      <c r="S19" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T19" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="2">
         <v>4002</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="4">
+        <v>122</v>
+      </c>
+      <c r="E20" s="25">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
         <v>3</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G20" s="2">
         <v>2.9670000000000001</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="2">
         <v>5001</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="2">
+        <v>79</v>
+      </c>
+      <c r="E21" s="26">
         <v>1</v>
       </c>
       <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
         <v>1.167</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="13"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="2">
+      <c r="M21" s="2"/>
+      <c r="N21" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="N21" s="2">
-        <v>1</v>
-      </c>
-      <c r="O21" s="1" t="s">
+      <c r="O21" s="2">
+        <v>1</v>
+      </c>
+      <c r="P21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="R21" s="2">
+      <c r="R21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S21" s="2">
         <v>0.2</v>
       </c>
-      <c r="S21" s="1">
+      <c r="T21" s="1">
         <v>0.2</v>
       </c>
-      <c r="T21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="2">
         <v>5002</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="4">
+        <v>123</v>
+      </c>
+      <c r="E22" s="25">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
         <v>3</v>
       </c>
-      <c r="F22" s="2">
+      <c r="G22" s="2">
         <v>2.5670000000000002</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="2">
         <v>6001</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="2">
+        <v>84</v>
+      </c>
+      <c r="E23" s="26">
         <v>1</v>
       </c>
       <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
         <v>1.4670000000000001</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="13"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="2">
+      <c r="M23" s="2"/>
+      <c r="N23" s="2">
         <v>0.6</v>
       </c>
-      <c r="N23" s="2">
-        <v>1</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>85</v>
+      <c r="O23" s="2">
+        <v>1</v>
       </c>
       <c r="P23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="R23" s="2">
+      <c r="R23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S23" s="2">
         <v>0.2</v>
       </c>
-      <c r="S23" s="1">
+      <c r="T23" s="1">
         <v>0.2</v>
       </c>
-      <c r="T23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="2">
         <v>6002</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E24" s="2">
+        <v>124</v>
+      </c>
+      <c r="E24" s="26">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
         <v>3</v>
       </c>
-      <c r="F24" s="2">
+      <c r="G24" s="2">
         <v>2.2669999999999999</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="2">
         <v>8001</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="2">
+        <v>102</v>
+      </c>
+      <c r="E25" s="26">
         <v>1</v>
       </c>
       <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
         <v>2.2669999999999999</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="2">
-        <v>1</v>
-      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2">
         <v>1</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="O25" s="2">
+        <v>1</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q25" s="2" t="s">
+      <c r="Q25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R25" s="2">
+      <c r="S25" s="2">
         <v>0.2</v>
       </c>
-      <c r="S25" s="1">
+      <c r="T25" s="1">
         <v>0.2</v>
       </c>
-      <c r="T25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="2">
         <v>8002</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" s="2">
+        <v>125</v>
+      </c>
+      <c r="E26" s="26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
         <v>3</v>
       </c>
-      <c r="F26" s="2">
+      <c r="G26" s="2">
         <v>4</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="2">
         <v>8003</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="26">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>3</v>
+      </c>
+      <c r="G27" s="2">
+        <v>6.6669999999999998</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="2">
-        <v>3</v>
-      </c>
-      <c r="F27" s="2">
-        <v>6.6669999999999998</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="4">
         <v>8004</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" s="4">
+        <v>133</v>
+      </c>
+      <c r="E28" s="25">
+        <v>2</v>
+      </c>
+      <c r="F28" s="4">
         <v>3</v>
       </c>
-      <c r="F28" s="2">
+      <c r="G28" s="2">
         <v>6.6669999999999998</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="4"/>
+      <c r="H28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="21"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
-      <c r="O28" s="21"/>
+      <c r="O28" s="4"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillTimeline.xlsx
+++ b/config/excel/SkillTimeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6A68B2-0444-4436-9C93-3B0AEF42F939}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2F9F92-4820-4EB7-A031-A889A414A982}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="146">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -570,6 +570,53 @@
   </si>
   <si>
     <t>洛基-奥义技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merlin_attack1</t>
+  </si>
+  <si>
+    <t>Merlin_attack1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merlin_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waerjili_attack1_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waerjili_attack1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂未配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waerjili_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_luoji_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_luoji_atk1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -759,7 +806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -839,28 +886,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1141,6 +1174,23 @@
           <color theme="0"/>
         </top>
         <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -1237,28 +1287,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:U28" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
-  <autoFilter ref="C1:U28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:U29" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+  <autoFilter ref="C1:U29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TimeLineID" dataDxfId="18"/>
     <tableColumn id="7" xr3:uid="{6EC15DF4-B9C6-44B1-9114-5D0E6483D93B}" name="备注" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{F80DBC4B-F22C-476A-B707-5F859B091855}" name="场景表演" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="动画类型" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="持续时间" dataDxfId="15"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="表演ID" dataDxfId="14"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="施法特效" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="子弹特效" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="弹道速度" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{7DE3E249-5265-46EC-A7D5-79ECF44EF87B}" name="弹道起始偏移" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{365F177B-4E80-4AE7-8031-13055E21DD6C}" name="弹道高度" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="effect时间点" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="effect顺序2" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="被击动作编号" dataDxfId="6"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="受击特效" dataDxfId="5"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="插槽ID" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{05C48C32-C296-4A34-BC9C-0D52C9414CA3}" name="受伤状态" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="受击停帧" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="击退距离" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{F80DBC4B-F22C-476A-B707-5F859B091855}" name="场景表演" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="动画类型" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="持续时间" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="表演ID" dataDxfId="13"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="施法特效" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="子弹特效" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="弹道速度" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{7DE3E249-5265-46EC-A7D5-79ECF44EF87B}" name="弹道起始偏移" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{365F177B-4E80-4AE7-8031-13055E21DD6C}" name="弹道高度" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="effect时间点" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="effect顺序2" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="被击动作编号" dataDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="受击特效" dataDxfId="4"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="插槽ID" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{05C48C32-C296-4A34-BC9C-0D52C9414CA3}" name="受伤状态" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="受击停帧" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="击退距离" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1527,10 +1577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1946,6 +1996,9 @@
       <c r="H8" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="I8" s="13" t="s">
+        <v>139</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1954,23 +2007,29 @@
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C9" s="23">
-        <v>1004</v>
+      <c r="B9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1003</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="E9" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="4">
         <v>3</v>
       </c>
       <c r="G9" s="2">
-        <v>5.367</v>
+        <v>4.633</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>117</v>
+        <v>70</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>141</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1980,59 +2039,40 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C10" s="2">
-        <v>20011</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="26">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
+      <c r="C10" s="23">
+        <v>1004</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="25">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3</v>
       </c>
       <c r="G10" s="2">
-        <v>1</v>
+        <v>5.367</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="O10" s="2">
-        <v>1</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S10" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="T10" s="1">
-        <v>0.2</v>
-      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="2">
-        <v>20012</v>
+        <v>20011</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="26">
         <v>1</v>
@@ -2044,17 +2084,17 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="O11" s="2">
         <v>1</v>
@@ -2063,7 +2103,7 @@
         <v>17</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>34</v>
@@ -2074,44 +2114,64 @@
       <c r="T11" s="1">
         <v>0.2</v>
       </c>
-      <c r="U11" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C12" s="4">
-        <v>2002</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="25">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>3</v>
-      </c>
-      <c r="G12" s="4">
-        <v>2.8330000000000002</v>
+      <c r="C12" s="2">
+        <v>20012</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="26">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>70</v>
+        <v>31</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
+      <c r="N12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="4">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="E13" s="25">
         <v>1</v>
@@ -2125,137 +2185,146 @@
       <c r="H13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
+      <c r="I13" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C14" s="2">
-        <v>2004</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="26">
-        <v>2</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="C14" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="25">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
         <v>3</v>
       </c>
-      <c r="G14" s="2">
-        <v>7.3330000000000002</v>
+      <c r="G14" s="4">
+        <v>2.8330000000000002</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="I14" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="2">
-        <v>3001</v>
+        <v>2004</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="E15" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="2">
-        <v>2</v>
+        <v>7.3330000000000002</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K15" s="2">
-        <v>10</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="O15" s="2">
-        <v>1</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="T15" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="U15" s="1">
-        <v>1</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="S15" s="2"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C16" s="2">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="E16" s="26">
         <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" s="2">
-        <v>3.8330000000000002</v>
+        <v>2</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="S16" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="2">
+        <v>10</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="U16" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="2">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="E17" s="26">
         <v>1</v>
@@ -2267,7 +2336,10 @@
         <v>3.8330000000000002</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -2278,346 +2350,356 @@
       <c r="S17" s="2"/>
     </row>
     <row r="18" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C18" s="4">
-        <v>3004</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="25">
-        <v>2</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="C18" s="2">
+        <v>3003</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="26">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
         <v>3</v>
       </c>
-      <c r="G18" s="4">
-        <v>6.7</v>
+      <c r="G18" s="2">
+        <v>3.8330000000000002</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
+      <c r="I18" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
     </row>
     <row r="19" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C19" s="2">
-        <v>4001</v>
+      <c r="C19" s="4">
+        <v>3004</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="E19" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="4">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
-        <v>2.0329999999999999</v>
+        <v>3</v>
+      </c>
+      <c r="G19" s="4">
+        <v>6.7</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K19" s="2">
-        <v>10</v>
-      </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2">
-        <v>1</v>
-      </c>
-      <c r="O19" s="2">
-        <v>1</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S19" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="T19" s="1">
-        <v>0.2</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
     </row>
     <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="2">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="E20" s="25">
         <v>1</v>
       </c>
       <c r="F20" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2">
-        <v>2.9670000000000001</v>
+        <v>2.0329999999999999</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" s="2">
+        <v>10</v>
+      </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="2">
-        <v>5001</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="26">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1</v>
+        <v>4002</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="25">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3</v>
       </c>
       <c r="G21" s="2">
-        <v>1.167</v>
+        <v>2.9670000000000001</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="O21" s="2">
-        <v>1</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="S21" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="T21" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="U21" s="1">
-        <v>1</v>
-      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
     </row>
     <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="2">
-        <v>5002</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" s="25">
-        <v>1</v>
-      </c>
-      <c r="F22" s="4">
-        <v>3</v>
+        <v>5001</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="26">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
       </c>
       <c r="G22" s="2">
-        <v>2.5670000000000002</v>
+        <v>1.167</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>95</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I22" s="13"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="N22" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="U22" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="2">
-        <v>6001</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="26">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
+        <v>5002</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="25">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3</v>
       </c>
       <c r="G23" s="2">
-        <v>1.4670000000000001</v>
+        <v>2.5670000000000002</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="O23" s="2">
-        <v>1</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="S23" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="T23" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="U23" s="1">
-        <v>1</v>
-      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
     </row>
     <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="2">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="E24" s="26">
         <v>1</v>
       </c>
       <c r="F24" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G24" s="2">
-        <v>2.2669999999999999</v>
+        <v>1.4670000000000001</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>95</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I24" s="13"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="N24" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O24" s="2">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="U24" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="2">
-        <v>8001</v>
+        <v>6002</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="E25" s="26">
         <v>1</v>
       </c>
       <c r="F25" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G25" s="2">
         <v>2.2669999999999999</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>114</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="I25" s="13"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="2">
-        <v>1</v>
-      </c>
-      <c r="O25" s="2">
-        <v>1</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S25" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="T25" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="U25" s="1">
-        <v>1</v>
-      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
     </row>
     <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="2">
-        <v>8002</v>
+        <v>8001</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E26" s="26">
         <v>1</v>
       </c>
       <c r="F26" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26" s="2">
-        <v>4</v>
+        <v>2.2669999999999999</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="N26" s="2">
+        <v>1</v>
+      </c>
+      <c r="O26" s="2">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S26" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="U26" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="2">
-        <v>8003</v>
+        <v>8002</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="E27" s="26">
         <v>1</v>
@@ -2626,10 +2708,13 @@
         <v>3</v>
       </c>
       <c r="G27" s="2">
-        <v>6.6669999999999998</v>
+        <v>4</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -2639,16 +2724,16 @@
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C28" s="4">
-        <v>8004</v>
+      <c r="C28" s="2">
+        <v>8003</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E28" s="25">
-        <v>2</v>
-      </c>
-      <c r="F28" s="4">
+        <v>103</v>
+      </c>
+      <c r="E28" s="26">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
         <v>3</v>
       </c>
       <c r="G28" s="2">
@@ -2657,19 +2742,50 @@
       <c r="H28" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
+      <c r="I28" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C29" s="4">
+        <v>8004</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="25">
+        <v>2</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3</v>
+      </c>
+      <c r="G29" s="2">
+        <v>6.6669999999999998</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillTimeline.xlsx
+++ b/config/excel/SkillTimeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2F9F92-4820-4EB7-A031-A889A414A982}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F10B3B-CC71-407C-A49C-CD0DAACF0B5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="146">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -592,10 +592,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Waerjili_attack1_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>瓦尔基里-技能2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -617,6 +613,10 @@
   </si>
   <si>
     <t>Fx_luoji_atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1579,8 +1579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1978,6 +1978,9 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="C8" s="2">
         <v>1002</v>
       </c>
@@ -1997,7 +2000,7 @@
         <v>95</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -2008,13 +2011,13 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="2">
         <v>1003</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E9" s="25">
         <v>1</v>
@@ -2029,7 +2032,7 @@
         <v>70</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -2058,7 +2061,7 @@
         <v>117</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -2714,7 +2717,7 @@
         <v>105</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -2743,7 +2746,7 @@
         <v>106</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -2766,13 +2769,13 @@
         <v>3</v>
       </c>
       <c r="G29" s="2">
-        <v>6.6669999999999998</v>
+        <v>12.133333333333333</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>106</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>

--- a/config/excel/SkillTimeline.xlsx
+++ b/config/excel/SkillTimeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F10B3B-CC71-407C-A49C-CD0DAACF0B5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5708CF-69E0-4B48-9FBB-F9C6A68D198D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTimeLine" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="151">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -617,6 +617,25 @@
   </si>
   <si>
     <t>护盾技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_daoguang_hit</t>
+  </si>
+  <si>
+    <t>史莱姆-普攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史莱姆-技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1287,8 +1306,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:U29" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
-  <autoFilter ref="C1:U29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:U32" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+  <autoFilter ref="C1:U32" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TimeLineID" dataDxfId="18"/>
     <tableColumn id="7" xr3:uid="{6EC15DF4-B9C6-44B1-9114-5D0E6483D93B}" name="备注" dataDxfId="17"/>
@@ -1577,10 +1596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2528,7 +2547,7 @@
         <v>17</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>83</v>
@@ -2604,7 +2623,7 @@
         <v>82</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>83</v>
@@ -2790,6 +2809,110 @@
       <c r="T29" s="21"/>
       <c r="U29" s="21"/>
     </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C30" s="2">
+        <v>9001</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2.1669999999999998</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K30" s="2">
+        <v>10</v>
+      </c>
+      <c r="L30" s="2">
+        <v>2</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="N30" s="2">
+        <v>1.667</v>
+      </c>
+      <c r="O30" s="2">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S30" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="U30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C31" s="2">
+        <v>9002</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>3</v>
+      </c>
+      <c r="G31" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I31" s="13"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/excel/SkillTimeline.xlsx
+++ b/config/excel/SkillTimeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5708CF-69E0-4B48-9FBB-F9C6A68D198D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAEA9F9-5398-4A97-9AB3-65ADE726DDCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="127">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>受击特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>施法特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,18 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>受击特效表现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被击动作编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bak1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fxName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,125 +102,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>TimeLineID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comb2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect时间点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comb1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hitAnimName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受击动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插槽ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitFxName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受击特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受击特效插槽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimeLineID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comb2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_PLMXS_atk_hit1</t>
-  </si>
-  <si>
-    <t>hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitStopTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击退距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitBackDistance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受击停顿时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑效果读取配置中第几个effect</t>
-  </si>
-  <si>
-    <t>effectIndex</t>
-  </si>
-  <si>
-    <t>第几个effect</t>
-  </si>
-  <si>
-    <t>effect顺序2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect时间点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comb1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitFxSlot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弹道速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,10 +151,6 @@
   </si>
   <si>
     <t>bulletSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击退距离</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -306,10 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fx_PLMXS_atk_hit2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>atk1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,10 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fx_attack_hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>梅林-技能2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,41 +250,7 @@
     <t>Fx_PLMXS_atk_slash2</t>
   </si>
   <si>
-    <t>bak1</t>
-  </si>
-  <si>
-    <t>hit</t>
-  </si>
-  <si>
     <t>蝙蝠-普攻1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击方进行攻击的过程中，攻击方和受击方同时暂停的时长，其他的单位不受影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受击停帧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受击方在受击时，切成受击状态的时间，受击单位的COM会静止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受伤状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitHurtTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受伤状态的持续时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -421,20 +280,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fx_daoguang_hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>扫把-普攻1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Fx_PLMXS_atk_slash1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受击动作
-单体弹道的受击时间为物理碰撞的时间点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -489,10 +339,6 @@
   </si>
   <si>
     <t>Fx_luoji_atk_xuli</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_luoji_atk_hit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -620,9 +466,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fx_daoguang_hit</t>
-  </si>
-  <si>
     <t>史莱姆-普攻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -636,6 +479,74 @@
   </si>
   <si>
     <t>atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能effectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发效果逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1004,1009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003,1012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003,1016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002,1011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100111,100112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800111,800112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_luoji_atk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002,1010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003,1007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -708,7 +619,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -802,19 +713,6 @@
       <right style="thin">
         <color theme="0"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
       <top style="thin">
         <color theme="0"/>
       </top>
@@ -825,7 +723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -866,18 +764,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -887,11 +773,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -905,115 +788,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="18">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
+        <left/>
         <right style="thin">
           <color theme="0"/>
         </right>
@@ -1098,7 +887,9 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
         <right style="thin">
           <color theme="0"/>
         </right>
@@ -1116,25 +907,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
         <right style="thin">
           <color theme="0"/>
         </right>
@@ -1306,28 +1078,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:U32" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
-  <autoFilter ref="C1:U32" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TimeLineID" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{6EC15DF4-B9C6-44B1-9114-5D0E6483D93B}" name="备注" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{F80DBC4B-F22C-476A-B707-5F859B091855}" name="场景表演" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="动画类型" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="持续时间" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="表演ID" dataDxfId="13"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="施法特效" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="子弹特效" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="弹道速度" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{7DE3E249-5265-46EC-A7D5-79ECF44EF87B}" name="弹道起始偏移" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{365F177B-4E80-4AE7-8031-13055E21DD6C}" name="弹道高度" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="effect时间点" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="effect顺序2" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="被击动作编号" dataDxfId="5"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="受击特效" dataDxfId="4"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="插槽ID" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{05C48C32-C296-4A34-BC9C-0D52C9414CA3}" name="受伤状态" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="受击停帧" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="击退距离" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:O32" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="C1:O32" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TimeLineID" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{6EC15DF4-B9C6-44B1-9114-5D0E6483D93B}" name="备注" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{F80DBC4B-F22C-476A-B707-5F859B091855}" name="场景表演" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="动画类型" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="持续时间" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="表演ID" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{85E4840D-F73A-4BDB-A129-6F4E57B38098}" name="effectID" dataDxfId="6"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="施法特效" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="子弹特效" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="弹道速度" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{7DE3E249-5265-46EC-A7D5-79ECF44EF87B}" name="弹道起始偏移" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{365F177B-4E80-4AE7-8031-13055E21DD6C}" name="弹道高度" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="effect时间点" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1596,10 +1362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1607,26 +1373,23 @@
     <col min="1" max="5" width="10.625" style="1"/>
     <col min="6" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.125" style="1" customWidth="1"/>
-    <col min="16" max="17" width="15.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.625" style="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.625" style="1"/>
+    <col min="21" max="21" width="13" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1634,122 +1397,86 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="U1" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="20"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="12" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="G2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="K2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="L2" s="8" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>67</v>
+        <v>73</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="T2" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1758,58 +1485,40 @@
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="T3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1817,51 +1526,33 @@
         <v>6</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>132</v>
+      <c r="E4" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="T4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="14" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1878,14 +1569,8 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1894,65 +1579,47 @@
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="K6" s="6" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="T6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="U6" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="2">
         <v>1001</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="25">
+        <v>55</v>
+      </c>
+      <c r="E7" s="20">
         <v>1</v>
       </c>
       <c r="F7" s="4">
@@ -1962,51 +1629,33 @@
         <v>2</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J7" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2">
+      <c r="N7" s="2"/>
+      <c r="O7" s="2">
         <v>0.63329999999999997</v>
       </c>
-      <c r="O7" s="2">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="U7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="C8" s="2">
         <v>1002</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="25">
+        <v>56</v>
+      </c>
+      <c r="E8" s="20">
         <v>1</v>
       </c>
       <c r="F8" s="4">
@@ -2016,29 +1665,31 @@
         <v>4.633</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="J8" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2">
         <v>1003</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="25">
+        <v>99</v>
+      </c>
+      <c r="E9" s="20">
         <v>1</v>
       </c>
       <c r="F9" s="4">
@@ -2048,26 +1699,28 @@
         <v>4.633</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="J9" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C10" s="23">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C10" s="18">
         <v>1004</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" s="25">
+        <v>76</v>
+      </c>
+      <c r="E10" s="20">
         <v>2</v>
       </c>
       <c r="F10" s="4">
@@ -2077,74 +1730,61 @@
         <v>5.367</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="J10" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="I10" s="23">
+        <v>1004</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="2">
         <v>20011</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="23">
+        <v>200111</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="26">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2">
+      <c r="N11" s="2"/>
+      <c r="O11" s="2">
         <v>0.1</v>
       </c>
-      <c r="O11" s="2">
-        <v>1</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S11" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="T11" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="2">
         <v>20012</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="26">
+        <v>37</v>
+      </c>
+      <c r="E12" s="21">
         <v>1</v>
       </c>
       <c r="F12" s="2">
@@ -2154,48 +1794,30 @@
         <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="J12" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I12" s="23">
+        <v>200121</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="2">
+      <c r="N12" s="2"/>
+      <c r="O12" s="2">
         <v>0.5</v>
       </c>
-      <c r="O12" s="2">
-        <v>1</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="T12" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="U12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="4">
         <v>2002</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="25">
+        <v>80</v>
+      </c>
+      <c r="E13" s="20">
         <v>1</v>
       </c>
       <c r="F13" s="4">
@@ -2205,61 +1827,59 @@
         <v>2.8330000000000002</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="J13" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="I13" s="23">
+        <v>1002</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>94</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="4">
         <v>2003</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="25">
+        <v>38</v>
+      </c>
+      <c r="E14" s="20">
         <v>1</v>
       </c>
       <c r="F14" s="4">
         <v>3</v>
       </c>
       <c r="G14" s="4">
-        <v>2.8330000000000002</v>
+        <v>2.9</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="2">
         <v>2004</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="26">
+        <v>79</v>
+      </c>
+      <c r="E15" s="21">
         <v>2</v>
       </c>
       <c r="F15" s="2">
@@ -2269,27 +1889,28 @@
         <v>7.3330000000000002</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="J15" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="S15" s="2"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C16" s="2">
         <v>3001</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="26">
+        <v>44</v>
+      </c>
+      <c r="E16" s="21">
         <v>1</v>
       </c>
       <c r="F16" s="2">
@@ -2299,56 +1920,38 @@
         <v>2</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" s="2">
+        <v>45</v>
+      </c>
+      <c r="I16" s="23">
+        <v>1001</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="2">
         <v>10</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1.2</v>
       </c>
       <c r="M16" s="2">
         <v>1.2</v>
       </c>
       <c r="N16" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="O16" s="2">
         <v>0.9</v>
       </c>
-      <c r="O16" s="2">
-        <v>1</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S16" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="T16" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="U16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="2">
         <v>3002</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="26">
+        <v>81</v>
+      </c>
+      <c r="E17" s="21">
         <v>1</v>
       </c>
       <c r="F17" s="2">
@@ -2358,27 +1961,28 @@
         <v>3.8330000000000002</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="J17" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="I17" s="23">
+        <v>1002</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>96</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="S17" s="2"/>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="2">
         <v>3003</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="26">
+        <v>48</v>
+      </c>
+      <c r="E18" s="21">
         <v>1</v>
       </c>
       <c r="F18" s="2">
@@ -2388,27 +1992,28 @@
         <v>3.8330000000000002</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="J18" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="S18" s="2"/>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="4">
         <v>3004</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" s="25">
+        <v>78</v>
+      </c>
+      <c r="E19" s="20">
         <v>2</v>
       </c>
       <c r="F19" s="4">
@@ -2418,82 +2023,67 @@
         <v>6.7</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J19" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="I19" s="23">
+        <v>1004</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>98</v>
+      </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="2">
         <v>4001</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="25">
+        <v>61</v>
+      </c>
+      <c r="E20" s="20">
         <v>1</v>
       </c>
       <c r="F20" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="2">
         <v>2.0329999999999999</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K20" s="2">
+        <v>57</v>
+      </c>
+      <c r="I20" s="23">
+        <v>1001</v>
+      </c>
+      <c r="J20" s="13"/>
+      <c r="K20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="2">
         <v>10</v>
       </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="M20" s="2">
+        <v>1.2</v>
+      </c>
       <c r="N20" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="O20" s="2">
         <v>1</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S20" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="T20" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="2">
         <v>4002</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E21" s="25">
+        <v>82</v>
+      </c>
+      <c r="E21" s="20">
         <v>1</v>
       </c>
       <c r="F21" s="4">
@@ -2503,24 +2093,26 @@
         <v>2.9670000000000001</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="I21" s="23">
+        <v>1002</v>
+      </c>
+      <c r="J21" s="13"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="2">
         <v>5001</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="26">
+        <v>51</v>
+      </c>
+      <c r="E22" s="21">
         <v>1</v>
       </c>
       <c r="F22" s="2">
@@ -2530,46 +2122,28 @@
         <v>1.167</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="I22" s="23">
+        <v>1001</v>
+      </c>
+      <c r="J22" s="13"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="2">
+      <c r="N22" s="2"/>
+      <c r="O22" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="O22" s="2">
-        <v>1</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="S22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="T22" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="U22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="2">
         <v>5002</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" s="25">
+        <v>83</v>
+      </c>
+      <c r="E23" s="20">
         <v>1</v>
       </c>
       <c r="F23" s="4">
@@ -2579,24 +2153,26 @@
         <v>2.5670000000000002</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="I23" s="23">
+        <v>1002</v>
+      </c>
+      <c r="J23" s="13"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="2">
         <v>6001</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="26">
+        <v>54</v>
+      </c>
+      <c r="E24" s="21">
         <v>1</v>
       </c>
       <c r="F24" s="2">
@@ -2606,46 +2182,28 @@
         <v>1.4670000000000001</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="I24" s="23">
+        <v>1001</v>
+      </c>
+      <c r="J24" s="13"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="2">
+      <c r="N24" s="2"/>
+      <c r="O24" s="2">
         <v>0.6</v>
       </c>
-      <c r="O24" s="2">
-        <v>1</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="S24" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="T24" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="U24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="2">
         <v>6002</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="26">
+        <v>84</v>
+      </c>
+      <c r="E25" s="21">
         <v>1</v>
       </c>
       <c r="F25" s="2">
@@ -2655,24 +2213,26 @@
         <v>2.2669999999999999</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="I25" s="23">
+        <v>1002</v>
+      </c>
+      <c r="J25" s="13"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="2">
         <v>8001</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="26">
+        <v>63</v>
+      </c>
+      <c r="E26" s="21">
         <v>1</v>
       </c>
       <c r="F26" s="2">
@@ -2682,48 +2242,30 @@
         <v>2.2669999999999999</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="J26" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="2">
-        <v>1</v>
-      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2">
         <v>1</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S26" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="T26" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="U26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="2">
         <v>8002</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E27" s="26">
+        <v>85</v>
+      </c>
+      <c r="E27" s="21">
         <v>1</v>
       </c>
       <c r="F27" s="2">
@@ -2733,55 +2275,59 @@
         <v>4</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="J27" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="2">
         <v>8003</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="26">
+        <v>64</v>
+      </c>
+      <c r="E28" s="21">
         <v>1</v>
       </c>
       <c r="F28" s="2">
         <v>3</v>
       </c>
       <c r="G28" s="2">
-        <v>6.6669999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="J28" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>123</v>
+      </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="4">
         <v>8004</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E29" s="25">
+        <v>93</v>
+      </c>
+      <c r="E29" s="20">
         <v>2</v>
       </c>
       <c r="F29" s="4">
@@ -2791,30 +2337,26 @@
         <v>12.133333333333333</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="J29" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="I29" s="23">
+        <v>1004</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="2">
         <v>9001</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
@@ -2826,51 +2368,33 @@
         <v>2.1669999999999998</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K30" s="2">
+        <v>108</v>
+      </c>
+      <c r="I30" s="23">
+        <v>1001</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" s="2">
         <v>10</v>
       </c>
-      <c r="L30" s="2">
+      <c r="M30" s="2">
         <v>2</v>
       </c>
-      <c r="M30" s="2">
+      <c r="N30" s="2">
         <v>0.4</v>
       </c>
-      <c r="N30" s="2">
+      <c r="O30" s="2">
         <v>1.667</v>
       </c>
-      <c r="O30" s="2">
-        <v>1</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S30" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="T30" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="U30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="2">
         <v>9002</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
@@ -2882,36 +2406,32 @@
         <v>2.5</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="I31" s="23">
+        <v>1002</v>
+      </c>
+      <c r="J31" s="13"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="17"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillTimeline.xlsx
+++ b/config/excel/SkillTimeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAEA9F9-5398-4A97-9AB3-65ADE726DDCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED70208E-96A7-4A94-A294-842EC8F052CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>dd</author>
+  </authors>
+  <commentList>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{02C26310-3BBF-4CE2-AE69-7B1169A321F8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">1-这个触发的顺序根据前面轨道开始时间来决定
+2-时间一致时由trackID的序列来决定先后
+3-战技：重复的effectID不执行，仅执行第1个
+4-战技：真多段的多个effect,按照配置的顺序依次跟track中对应。多出来的同一在技能释放的最后根据顺序播放
+4-这里配了第几个但timeline配置中没有对应的effect，同样不执行
+5-这里没配置，timeline中有的，都是在技能表演结束后，根据timeline表演里的先后顺序生效对应的effect
+6-奥义的表演只读effect的第1个，奥义多个hit点对应都是这个effect的分拆
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="129">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,10 +526,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>触发效果逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[]int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -506,18 +534,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1003,1012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1003,1016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1002,1011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100111,100112</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -546,7 +562,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1003,1007</t>
+    <t>触发效果逻辑
+ID的顺序由track表中的开始时间决定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200201,200202,200203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100201,100201,100201,100201,1011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100201,100201,100201,100201,1012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200301,200301,200301,200301,1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300201,300201,300201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300201,300201,300201,1016</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,7 +595,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,6 +626,14 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -723,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -792,6 +841,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1361,11 +1416,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1373,7 +1428,7 @@
     <col min="1" max="5" width="10.625" style="1"/>
     <col min="6" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.75" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.375" style="1" customWidth="1"/>
@@ -1538,8 +1593,8 @@
       <c r="H4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>113</v>
+      <c r="I4" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>42</v>
@@ -1591,7 +1646,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>11</v>
@@ -1632,7 +1687,7 @@
         <v>57</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>59</v>
@@ -1667,8 +1722,8 @@
       <c r="H8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="23" t="s">
-        <v>118</v>
+      <c r="I8" s="24" t="s">
+        <v>124</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>100</v>
@@ -1701,8 +1756,8 @@
       <c r="H9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="23" t="s">
-        <v>116</v>
+      <c r="I9" s="25" t="s">
+        <v>125</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>100</v>
@@ -1829,8 +1884,8 @@
       <c r="H13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="23">
-        <v>1002</v>
+      <c r="I13" s="25" t="s">
+        <v>123</v>
       </c>
       <c r="J13" s="13" t="s">
         <v>94</v>
@@ -1858,13 +1913,13 @@
         <v>2.9</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I14" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" s="25" t="s">
         <v>126</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
@@ -1892,7 +1947,7 @@
         <v>43</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>95</v>
@@ -1963,8 +2018,8 @@
       <c r="H17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="23">
-        <v>1002</v>
+      <c r="I17" s="25" t="s">
+        <v>127</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>96</v>
@@ -1994,8 +2049,8 @@
       <c r="H18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="23" t="s">
-        <v>117</v>
+      <c r="I18" s="25" t="s">
+        <v>128</v>
       </c>
       <c r="J18" s="13" t="s">
         <v>97</v>
@@ -2245,7 +2300,7 @@
         <v>65</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>75</v>
@@ -2278,7 +2333,7 @@
         <v>66</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="J27" s="13" t="s">
         <v>104</v>
@@ -2306,13 +2361,13 @@
         <v>2.8</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -2437,8 +2492,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/config/excel/SkillTimeline.xlsx
+++ b/config/excel/SkillTimeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED70208E-96A7-4A94-A294-842EC8F052CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B51B715-D357-4BC5-8413-6905305B9D6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTimeLine" sheetId="1" r:id="rId1"/>
@@ -1420,7 +1420,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config/excel/SkillTimeline.xlsx
+++ b/config/excel/SkillTimeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B51B715-D357-4BC5-8413-6905305B9D6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE727BD-4674-4237-BB52-08A07659D28A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>dd</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{02C26310-3BBF-4CE2-AE69-7B1169A321F8}">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{02C26310-3BBF-4CE2-AE69-7B1169A321F8}">
       <text>
         <r>
           <rPr>
@@ -41,14 +41,14 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">1-这个触发的顺序根据前面轨道开始时间来决定
+          <t>1-这个触发的顺序根据前面轨道开始时间来决定
 2-时间一致时由trackID的序列来决定先后
 3-战技：重复的effectID不执行，仅执行第1个
 4-战技：真多段的多个effect,按照配置的顺序依次跟track中对应。多出来的同一在技能释放的最后根据顺序播放
 4-这里配了第几个但timeline配置中没有对应的effect，同样不执行
 5-这里没配置，timeline中有的，都是在技能表演结束后，根据timeline表演里的先后顺序生效对应的effect
 6-奥义的表演只读effect的第1个，奥义多个hit点对应都是这个effect的分拆
-</t>
+7-track表中仅依次播放不带触发器条件的effectID，配置时优先配置没有触发条件的</t>
         </r>
       </text>
     </comment>
@@ -418,176 +418,177 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>场景表演</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-战斗场景
+2-虚拟环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1：固定范围(普攻)
 2：单体弹道(普攻)
 3：技能表演</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>场景表演</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-战斗场景
-2-虚拟环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>showType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：固定范围(普攻)
+    <t>洛基-奥义技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merlin_attack1</t>
+  </si>
+  <si>
+    <t>Merlin_attack1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merlin_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waerjili_attack1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂未配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waerjili_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_luoji_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_luoji_atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史莱姆-普攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史莱姆-技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能effectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1004,1009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100111,100112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800111,800112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_luoji_atk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002,1010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发效果逻辑
+ID的顺序由track表中的开始时间决定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200201,200202,200203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100201,100201,100201,100201,1011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100201,100201,100201,100201,1012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200301,200301,200301,200301,1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300201,300201,300201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300201,300201,300201,1016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：无表演
+1：固定范围(普攻)
 2：单体弹道(普攻)
 3：技能表演</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洛基-奥义技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_PLMXS_atk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_PLMXS_skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Merlin_attack1</t>
-  </si>
-  <si>
-    <t>Merlin_attack1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Merlin_skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦尔基里-技能2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Waerjili_attack1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂未配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Waerjili_skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_luoji_skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_luoji_atk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>史莱姆-普攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>史莱姆-技能1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能effectID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1004,1009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100111,100112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_PLMXS_atk2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>800111,800112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_luoji_atk2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1002,1010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发效果逻辑
-ID的顺序由track表中的开始时间决定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200201,200202,200203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100201,100201,100201,100201,1011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100201,100201,100201,100201,1012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200301,200301,200301,200301,1007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300201,300201,300201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300201,300201,300201,1016</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -762,17 +763,17 @@
       <right style="thin">
         <color theme="0"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color theme="0"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -810,9 +811,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -820,9 +818,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -837,17 +832,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -942,9 +934,7 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
+        <left/>
         <right style="thin">
           <color theme="0"/>
         </right>
@@ -1142,13 +1132,13 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="动画类型" dataDxfId="9"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="持续时间" dataDxfId="8"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="表演ID" dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{85E4840D-F73A-4BDB-A129-6F4E57B38098}" name="effectID" dataDxfId="6"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="施法特效" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="子弹特效" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="弹道速度" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{7DE3E249-5265-46EC-A7D5-79ECF44EF87B}" name="弹道起始偏移" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{365F177B-4E80-4AE7-8031-13055E21DD6C}" name="弹道高度" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="effect时间点" dataDxfId="0"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="施法特效" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="子弹特效" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="弹道速度" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{7DE3E249-5265-46EC-A7D5-79ECF44EF87B}" name="弹道起始偏移" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{365F177B-4E80-4AE7-8031-13055E21DD6C}" name="弹道高度" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="effect时间点" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{85E4840D-F73A-4BDB-A129-6F4E57B38098}" name="effectID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1419,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1428,13 +1418,12 @@
     <col min="1" max="5" width="10.625" style="1"/>
     <col min="6" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="19.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="1" customWidth="1"/>
     <col min="14" max="14" width="19.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="33.25" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" style="1" customWidth="1"/>
     <col min="17" max="17" width="14.625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.875" style="1" customWidth="1"/>
@@ -1458,7 +1447,7 @@
         <v>35</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>86</v>
@@ -1470,38 +1459,38 @@
         <v>12</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O1" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="16"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>23</v>
@@ -1509,26 +1498,26 @@
       <c r="H2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>111</v>
+      <c r="I2" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="N2" s="8" t="s">
         <v>74</v>
       </c>
+      <c r="N2" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="O2" s="11" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1540,7 +1529,7 @@
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>22</v>
@@ -1552,25 +1541,25 @@
         <v>15</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="78" customHeight="1" x14ac:dyDescent="0.2">
@@ -1581,11 +1570,11 @@
         <v>6</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>92</v>
+      <c r="E4" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>17</v>
@@ -1593,18 +1582,18 @@
       <c r="H4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="J4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14" t="s">
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13" t="s">
         <v>40</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1634,7 +1623,7 @@
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>21</v>
@@ -1646,25 +1635,25 @@
         <v>10</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>71</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1674,7 +1663,7 @@
       <c r="D7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="18">
         <v>1</v>
       </c>
       <c r="F7" s="4">
@@ -1686,23 +1675,23 @@
       <c r="H7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="J7" s="13" t="s">
+      <c r="I7" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2">
+      <c r="N7" s="2">
         <v>0.63329999999999997</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" s="2">
         <v>1002</v>
@@ -1710,7 +1699,7 @@
       <c r="D8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="18">
         <v>1</v>
       </c>
       <c r="F8" s="4">
@@ -1722,29 +1711,29 @@
       <c r="H8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>100</v>
-      </c>
+      <c r="I8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="O8" s="21" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2">
         <v>1003</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="20">
+        <v>98</v>
+      </c>
+      <c r="E9" s="18">
         <v>1</v>
       </c>
       <c r="F9" s="4">
@@ -1756,26 +1745,26 @@
       <c r="H9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>100</v>
-      </c>
+      <c r="I9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="O9" s="21" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C10" s="18">
+      <c r="C10" s="16">
         <v>1004</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="18">
         <v>2</v>
       </c>
       <c r="F10" s="4">
@@ -1787,17 +1776,17 @@
       <c r="H10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="23">
-        <v>1004</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>102</v>
-      </c>
+      <c r="I10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="O10" s="20">
+        <v>1004</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="2">
@@ -1806,7 +1795,7 @@
       <c r="D11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="19">
         <v>1</v>
       </c>
       <c r="F11" s="2">
@@ -1818,18 +1807,18 @@
       <c r="H11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="23">
-        <v>200111</v>
-      </c>
-      <c r="J11" s="13" t="s">
+      <c r="I11" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2">
+      <c r="N11" s="2">
         <v>0.1</v>
+      </c>
+      <c r="O11" s="20">
+        <v>200111</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1839,7 +1828,7 @@
       <c r="D12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="19">
         <v>1</v>
       </c>
       <c r="F12" s="2">
@@ -1851,18 +1840,18 @@
       <c r="H12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="23">
-        <v>200121</v>
-      </c>
-      <c r="J12" s="13" t="s">
+      <c r="I12" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2">
+      <c r="N12" s="2">
         <v>0.5</v>
+      </c>
+      <c r="O12" s="20">
+        <v>200121</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1872,7 +1861,7 @@
       <c r="D13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="18">
         <v>1</v>
       </c>
       <c r="F13" s="4">
@@ -1884,17 +1873,17 @@
       <c r="H13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>94</v>
-      </c>
+      <c r="I13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="O13" s="21" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="4">
@@ -1903,7 +1892,7 @@
       <c r="D14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="18">
         <v>1</v>
       </c>
       <c r="F14" s="4">
@@ -1913,19 +1902,19 @@
         <v>2.9</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="21" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="2">
@@ -1934,7 +1923,7 @@
       <c r="D15" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="19">
         <v>2</v>
       </c>
       <c r="F15" s="2">
@@ -1946,17 +1935,17 @@
       <c r="H15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>95</v>
-      </c>
+      <c r="I15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" s="20" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C16" s="2">
@@ -1965,7 +1954,7 @@
       <c r="D16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="19">
         <v>1</v>
       </c>
       <c r="F16" s="2">
@@ -1977,26 +1966,26 @@
       <c r="H16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="23">
-        <v>1001</v>
-      </c>
-      <c r="J16" s="13" t="s">
+      <c r="I16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="K16" s="2">
+        <v>10</v>
+      </c>
       <c r="L16" s="2">
-        <v>10</v>
+        <v>1.2</v>
       </c>
       <c r="M16" s="2">
         <v>1.2</v>
       </c>
       <c r="N16" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="O16" s="2">
         <v>0.9</v>
+      </c>
+      <c r="O16" s="20">
+        <v>1001</v>
       </c>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.2">
@@ -2006,7 +1995,7 @@
       <c r="D17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="19">
         <v>1</v>
       </c>
       <c r="F17" s="2">
@@ -2018,17 +2007,17 @@
       <c r="H17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>96</v>
-      </c>
+      <c r="I17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="O17" s="21" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="2">
@@ -2037,7 +2026,7 @@
       <c r="D18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="19">
         <v>1</v>
       </c>
       <c r="F18" s="2">
@@ -2049,17 +2038,17 @@
       <c r="H18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>97</v>
-      </c>
+      <c r="I18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="O18" s="21" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="4">
@@ -2068,7 +2057,7 @@
       <c r="D19" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="18">
         <v>2</v>
       </c>
       <c r="F19" s="4">
@@ -2080,17 +2069,17 @@
       <c r="H19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="23">
-        <v>1004</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>98</v>
-      </c>
+      <c r="I19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
+      <c r="O19" s="20">
+        <v>1004</v>
+      </c>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="2">
@@ -2099,7 +2088,7 @@
       <c r="D20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="18">
         <v>1</v>
       </c>
       <c r="F20" s="4">
@@ -2111,24 +2100,24 @@
       <c r="H20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="23">
-        <v>1001</v>
-      </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="2" t="s">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="K20" s="2">
+        <v>10</v>
+      </c>
       <c r="L20" s="2">
-        <v>10</v>
+        <v>1.2</v>
       </c>
       <c r="M20" s="2">
         <v>1.2</v>
       </c>
       <c r="N20" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="O20" s="2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="O20" s="20">
+        <v>1001</v>
       </c>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.2">
@@ -2138,7 +2127,7 @@
       <c r="D21" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="18">
         <v>1</v>
       </c>
       <c r="F21" s="4">
@@ -2150,15 +2139,15 @@
       <c r="H21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="23">
-        <v>1002</v>
-      </c>
-      <c r="J21" s="13"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="O21" s="20">
+        <v>1002</v>
+      </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="2">
@@ -2167,7 +2156,7 @@
       <c r="D22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="19">
         <v>1</v>
       </c>
       <c r="F22" s="2">
@@ -2179,16 +2168,16 @@
       <c r="H22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="23">
-        <v>1001</v>
-      </c>
-      <c r="J22" s="13"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2">
+      <c r="N22" s="2">
         <v>0.55000000000000004</v>
+      </c>
+      <c r="O22" s="20">
+        <v>1001</v>
       </c>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.2">
@@ -2198,7 +2187,7 @@
       <c r="D23" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="18">
         <v>1</v>
       </c>
       <c r="F23" s="4">
@@ -2210,15 +2199,15 @@
       <c r="H23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="23">
-        <v>1002</v>
-      </c>
-      <c r="J23" s="13"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="O23" s="20">
+        <v>1002</v>
+      </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="2">
@@ -2227,7 +2216,7 @@
       <c r="D24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="19">
         <v>1</v>
       </c>
       <c r="F24" s="2">
@@ -2239,16 +2228,16 @@
       <c r="H24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="23">
-        <v>1001</v>
-      </c>
-      <c r="J24" s="13"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2">
+      <c r="N24" s="2">
         <v>0.6</v>
+      </c>
+      <c r="O24" s="20">
+        <v>1001</v>
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.2">
@@ -2258,7 +2247,7 @@
       <c r="D25" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="19">
         <v>1</v>
       </c>
       <c r="F25" s="2">
@@ -2270,15 +2259,15 @@
       <c r="H25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I25" s="23">
-        <v>1002</v>
-      </c>
-      <c r="J25" s="13"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="O25" s="20">
+        <v>1002</v>
+      </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="2">
@@ -2287,7 +2276,7 @@
       <c r="D26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="19">
         <v>1</v>
       </c>
       <c r="F26" s="2">
@@ -2299,18 +2288,18 @@
       <c r="H26" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I26" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="J26" s="13" t="s">
+      <c r="I26" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2">
-        <v>1</v>
+      <c r="N26" s="2">
+        <v>1</v>
+      </c>
+      <c r="O26" s="20" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.2">
@@ -2320,7 +2309,7 @@
       <c r="D27" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="19">
         <v>1</v>
       </c>
       <c r="F27" s="2">
@@ -2332,17 +2321,17 @@
       <c r="H27" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I27" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>104</v>
-      </c>
+      <c r="I27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="O27" s="20" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="2">
@@ -2351,7 +2340,7 @@
       <c r="D28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="19">
         <v>1</v>
       </c>
       <c r="F28" s="2">
@@ -2361,28 +2350,28 @@
         <v>2.8</v>
       </c>
       <c r="H28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I28" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>119</v>
-      </c>
+      <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="O28" s="20" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="4">
         <v>8004</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="20">
+        <v>92</v>
+      </c>
+      <c r="E29" s="18">
         <v>2</v>
       </c>
       <c r="F29" s="4">
@@ -2394,24 +2383,24 @@
       <c r="H29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I29" s="23">
-        <v>1004</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>103</v>
-      </c>
+      <c r="I29" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
+      <c r="O29" s="20">
+        <v>1004</v>
+      </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="2">
         <v>9001</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
@@ -2423,25 +2412,26 @@
         <v>2.1669999999999998</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I30" s="23">
+        <v>107</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" s="2">
+        <v>10</v>
+      </c>
+      <c r="L30" s="2">
+        <v>2</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="N30" s="2">
+        <v>1.667</v>
+      </c>
+      <c r="O30" s="20">
         <v>1001</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L30" s="2">
-        <v>10</v>
-      </c>
-      <c r="M30" s="2">
-        <v>2</v>
-      </c>
-      <c r="N30" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="O30" s="2">
-        <v>1.667</v>
       </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.2">
@@ -2449,7 +2439,7 @@
         <v>9002</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
@@ -2461,32 +2451,56 @@
         <v>2.5</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I31" s="23">
-        <v>1002</v>
-      </c>
-      <c r="J31" s="13"/>
+        <v>108</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="O31" s="20">
+        <v>1002</v>
+      </c>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C32" s="4"/>
+      <c r="C32" s="4">
+        <v>200001</v>
+      </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0</v>
+      </c>
+      <c r="O32" s="4">
+        <v>200001</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillTimeline.xlsx
+++ b/config/excel/SkillTimeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE727BD-4674-4237-BB52-08A07659D28A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BA511D-9688-4A52-8CE8-42F4E5334E0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="137">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -456,23 +456,11 @@
     <t>Merlin_attack1</t>
   </si>
   <si>
-    <t>Merlin_attack1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Merlin_skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>瓦尔基里-技能2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Waerjili_attack1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂未配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -565,23 +553,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100201,100201,100201,100201,1011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100201,100201,100201,100201,1012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200301,200301,200301,200301,1007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>300201,300201,300201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300201,300201,300201,1016</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -589,6 +561,66 @@
 1：固定范围(普攻)
 2：单体弹道(普攻)
 3：技能表演</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shot3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waerjili_attack1_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤石柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waerjili_attack2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100301,100302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-临时奥义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waerjili_attack1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100401,100401,100401,100401,100402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200301,200301,200301,200301,200302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-临时奥义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200501,200501,200501,200501,200502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merlin_attack2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300301,300302</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,7 +805,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -841,6 +873,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1123,8 +1161,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:O32" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="C1:O32" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:O34" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="C1:O34" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TimeLineID" dataDxfId="12"/>
     <tableColumn id="7" xr3:uid="{6EC15DF4-B9C6-44B1-9114-5D0E6483D93B}" name="备注" dataDxfId="11"/>
@@ -1407,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1477,7 +1515,7 @@
         <v>24</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="85.5" x14ac:dyDescent="0.2">
@@ -1490,7 +1528,7 @@
         <v>88</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>23</v>
@@ -1517,7 +1555,7 @@
         <v>41</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1559,7 +1597,7 @@
         <v>25</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="78" customHeight="1" x14ac:dyDescent="0.2">
@@ -1593,7 +1631,7 @@
         <v>40</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1653,14 +1691,14 @@
         <v>27</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="2">
         <v>1001</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="24" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="18">
@@ -1675,10 +1713,10 @@
       <c r="H7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1686,17 +1724,17 @@
         <v>0.63329999999999997</v>
       </c>
       <c r="O7" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2">
         <v>1002</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="24" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="18">
@@ -1706,32 +1744,32 @@
         <v>3</v>
       </c>
       <c r="G8" s="2">
-        <v>4.633</v>
+        <v>1.633</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J8" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="14"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C9" s="2">
         <v>1003</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>98</v>
+      <c r="D9" s="24" t="s">
+        <v>97</v>
       </c>
       <c r="E9" s="18">
         <v>1</v>
@@ -1740,28 +1778,28 @@
         <v>3</v>
       </c>
       <c r="G9" s="2">
-        <v>4.633</v>
+        <v>2.133</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J9" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J9" s="14"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="21" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="16">
         <v>1004</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E10" s="18">
@@ -1776,10 +1814,10 @@
       <c r="H10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" s="2"/>
+      <c r="I10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="14"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1789,44 +1827,42 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C11" s="2">
-        <v>20011</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>36</v>
+      <c r="C11" s="16">
+        <v>1005</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>128</v>
       </c>
       <c r="E11" s="19">
         <v>1</v>
       </c>
-      <c r="F11" s="2">
-        <v>1</v>
+      <c r="F11" s="4">
+        <v>3</v>
       </c>
       <c r="G11" s="2">
-        <v>1</v>
+        <v>4.6333000000000002</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>62</v>
+        <v>129</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>130</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="O11" s="20">
-        <v>200111</v>
+      <c r="N11" s="2"/>
+      <c r="O11" s="21" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="2">
-        <v>20012</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>20011</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="E12" s="19">
         <v>1</v>
@@ -1838,59 +1874,61 @@
         <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="14"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="O12" s="20">
-        <v>200121</v>
+        <v>200111</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C13" s="4">
-        <v>2002</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="18">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>3</v>
-      </c>
-      <c r="G13" s="4">
-        <v>2.8330000000000002</v>
+      <c r="C13" s="2">
+        <v>20012</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="14"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="21" t="s">
-        <v>122</v>
+      <c r="N13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O13" s="20">
+        <v>200121</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="4">
-        <v>2003</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>38</v>
+        <v>2002</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="E14" s="18">
         <v>1</v>
@@ -1899,282 +1937,284 @@
         <v>3</v>
       </c>
       <c r="G14" s="4">
-        <v>2.9</v>
+        <v>2.8330000000000002</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="21" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C15" s="2">
-        <v>2004</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="19">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="C15" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="18">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
         <v>3</v>
       </c>
-      <c r="G15" s="2">
-        <v>7.3330000000000002</v>
+      <c r="G15" s="4">
+        <v>2.9</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="20" t="s">
-        <v>113</v>
+      <c r="O15" s="21" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C16" s="2">
-        <v>3001</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>2004</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="E16" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" s="2">
-        <v>2</v>
+        <v>7.3330000000000002</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="2">
-        <v>10</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="O16" s="20">
-        <v>1001</v>
+        <v>43</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="20" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="2">
-        <v>3002</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>81</v>
+        <v>2005</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="E17" s="19">
         <v>1</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="4">
         <v>3</v>
       </c>
-      <c r="G17" s="2">
-        <v>3.8330000000000002</v>
+      <c r="G17" s="4">
+        <v>2.9</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
       <c r="N17" s="2"/>
       <c r="O17" s="21" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="2">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E18" s="19">
         <v>1</v>
       </c>
       <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="2">
+        <v>10</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="O18" s="20">
+        <v>300101</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C19" s="2">
+        <v>3002</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
         <v>3</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G19" s="2">
         <v>3.8330000000000002</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C19" s="4">
-        <v>3004</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="18">
-        <v>2</v>
-      </c>
-      <c r="F19" s="4">
-        <v>3</v>
-      </c>
-      <c r="G19" s="4">
-        <v>6.7</v>
-      </c>
       <c r="H19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="20">
-        <v>1004</v>
+        <v>49</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="14"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="21" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="2">
-        <v>4001</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="18">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4">
+        <v>3003</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="19">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2">
+        <v>5</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C21" s="4">
+        <v>3004</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="18">
         <v>2</v>
-      </c>
-      <c r="G20" s="2">
-        <v>2.0329999999999999</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" s="2">
-        <v>10</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="M20" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="N20" s="2">
-        <v>1</v>
-      </c>
-      <c r="O20" s="20">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C21" s="2">
-        <v>4002</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="18">
-        <v>1</v>
       </c>
       <c r="F21" s="4">
         <v>3</v>
       </c>
-      <c r="G21" s="2">
-        <v>2.9670000000000001</v>
+      <c r="G21" s="4">
+        <v>6.7</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="J21" s="23"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
       <c r="O21" s="20">
-        <v>1002</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="2">
-        <v>5001</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="19">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1</v>
+        <v>4001</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="18">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2</v>
       </c>
       <c r="G22" s="2">
-        <v>1.167</v>
+        <v>2.0329999999999999</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="2">
+        <v>10</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1.2</v>
+      </c>
       <c r="N22" s="2">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="O22" s="20">
         <v>1001</v>
@@ -2182,10 +2222,10 @@
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="2">
-        <v>5002</v>
+        <v>4002</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" s="18">
         <v>1</v>
@@ -2194,13 +2234,13 @@
         <v>3</v>
       </c>
       <c r="G23" s="2">
-        <v>2.5670000000000002</v>
+        <v>2.9670000000000001</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -2211,10 +2251,10 @@
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="2">
-        <v>6001</v>
+        <v>5001</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E24" s="19">
         <v>1</v>
@@ -2223,18 +2263,18 @@
         <v>1</v>
       </c>
       <c r="G24" s="2">
-        <v>1.4670000000000001</v>
+        <v>1.167</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O24" s="20">
         <v>1001</v>
@@ -2242,25 +2282,25 @@
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="2">
-        <v>6002</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="19">
-        <v>1</v>
-      </c>
-      <c r="F25" s="2">
+        <v>5002</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="18">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
         <v>3</v>
       </c>
       <c r="G25" s="2">
-        <v>2.2669999999999999</v>
+        <v>2.5670000000000002</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -2271,10 +2311,10 @@
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="2">
-        <v>8001</v>
+        <v>6001</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E26" s="19">
         <v>1</v>
@@ -2283,31 +2323,29 @@
         <v>1</v>
       </c>
       <c r="G26" s="2">
-        <v>2.2669999999999999</v>
+        <v>1.4670000000000001</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J26" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2">
-        <v>1</v>
-      </c>
-      <c r="O26" s="20" t="s">
-        <v>116</v>
+        <v>0.6</v>
+      </c>
+      <c r="O26" s="20">
+        <v>1001</v>
       </c>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="2">
-        <v>8002</v>
+        <v>6002</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E27" s="19">
         <v>1</v>
@@ -2316,189 +2354,251 @@
         <v>3</v>
       </c>
       <c r="G27" s="2">
-        <v>4</v>
+        <v>2.2669999999999999</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J27" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="20" t="s">
-        <v>120</v>
+      <c r="O27" s="20">
+        <v>1002</v>
       </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="2">
-        <v>8003</v>
+        <v>8001</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" s="19">
         <v>1</v>
       </c>
       <c r="F28" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G28" s="2">
-        <v>2.8</v>
+        <v>2.2669999999999999</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J28" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="14"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="N28" s="2">
+        <v>1</v>
+      </c>
       <c r="O28" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C29" s="4">
-        <v>8004</v>
+      <c r="C29" s="2">
+        <v>8002</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="18">
-        <v>2</v>
-      </c>
-      <c r="F29" s="4">
+        <v>85</v>
+      </c>
+      <c r="E29" s="19">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
         <v>3</v>
       </c>
       <c r="G29" s="2">
-        <v>12.133333333333333</v>
+        <v>4</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="20">
-        <v>1004</v>
+        <v>66</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="J29" s="14"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="20" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="2">
+        <v>8003</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="19">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>3</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J30" s="14"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C31" s="4">
+        <v>8004</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="18">
+        <v>2</v>
+      </c>
+      <c r="F31" s="4">
+        <v>3</v>
+      </c>
+      <c r="G31" s="2">
+        <v>12.133333333333333</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="J31" s="23"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="20">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C32" s="2">
         <v>9001</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2">
+        <v>2.1669999999999998</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" s="2">
+        <v>10</v>
+      </c>
+      <c r="L32" s="2">
+        <v>2</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="N32" s="2">
+        <v>1.667</v>
+      </c>
+      <c r="O32" s="20">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C33" s="2">
+        <v>9002</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>3</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E30" s="2">
-        <v>1</v>
-      </c>
-      <c r="F30" s="2">
-        <v>2</v>
-      </c>
-      <c r="G30" s="2">
-        <v>2.1669999999999998</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K30" s="2">
-        <v>10</v>
-      </c>
-      <c r="L30" s="2">
-        <v>2</v>
-      </c>
-      <c r="M30" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="N30" s="2">
-        <v>1.667</v>
-      </c>
-      <c r="O30" s="20">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C31" s="2">
-        <v>9002</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2">
-        <v>3</v>
-      </c>
-      <c r="G31" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="20">
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="20">
         <v>1002</v>
       </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C32" s="4">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C34" s="4">
         <v>200001</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4">
-        <v>1</v>
-      </c>
-      <c r="F32" s="4">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4">
         <v>0</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G34" s="4">
         <v>0</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H34" s="4">
         <v>0</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I34" s="23">
         <v>0</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J34" s="23">
         <v>0</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K34" s="4">
         <v>0</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L34" s="4">
         <v>0</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M34" s="4">
         <v>0</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N34" s="4">
         <v>0</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O34" s="4">
         <v>200001</v>
       </c>
     </row>

--- a/config/excel/SkillTimeline.xlsx
+++ b/config/excel/SkillTimeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BA511D-9688-4A52-8CE8-42F4E5334E0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED7846A-F2EC-4FF7-98B4-12F52A2FFCAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTimeLine" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="139">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -524,23 +524,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>800111,800112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>atk2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Fx_luoji_atk2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1002,1010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -600,27 +588,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>200301,200301,200301,200301,200302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-临时奥义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200501,200501,200501,200501,200502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merlin_attack2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300301,300302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-临时奥义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800101,800102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800201,800202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基-临时奥义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800501,800502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>100401,100401,100401,100401,100402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200301,200301,200301,200301,200302</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男主-临时奥义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200501,200501,200501,200501,200502</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Merlin_attack2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300301,300302</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -805,7 +813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -876,9 +884,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1161,8 +1166,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:O34" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="C1:O34" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:O36" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="C1:O36" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TimeLineID" dataDxfId="12"/>
     <tableColumn id="7" xr3:uid="{6EC15DF4-B9C6-44B1-9114-5D0E6483D93B}" name="备注" dataDxfId="11"/>
@@ -1445,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1528,7 +1533,7 @@
         <v>88</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>23</v>
@@ -1631,7 +1636,7 @@
         <v>40</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1698,7 +1703,7 @@
       <c r="C7" s="2">
         <v>1001</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="18">
@@ -1734,7 +1739,7 @@
       <c r="C8" s="2">
         <v>1002</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="18">
@@ -1747,10 +1752,10 @@
         <v>1.633</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="2"/>
@@ -1758,17 +1763,17 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2">
         <v>1003</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>97</v>
       </c>
       <c r="E9" s="18">
@@ -1781,10 +1786,10 @@
         <v>2.133</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="2"/>
@@ -1792,14 +1797,14 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="21" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="16">
         <v>1004</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>76</v>
       </c>
       <c r="E10" s="18">
@@ -1830,8 +1835,8 @@
       <c r="C11" s="16">
         <v>1005</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>128</v>
+      <c r="D11" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="E11" s="19">
         <v>1</v>
@@ -1843,10 +1848,10 @@
         <v>4.6333000000000002</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1854,7 +1859,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="21" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1951,7 +1956,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1971,7 +1976,7 @@
         <v>2.9</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>112</v>
@@ -1982,7 +1987,7 @@
       <c r="M15" s="14"/>
       <c r="N15" s="2"/>
       <c r="O15" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -2021,7 +2026,7 @@
         <v>2005</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E17" s="19">
         <v>1</v>
@@ -2033,7 +2038,7 @@
         <v>2.9</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>112</v>
@@ -2044,14 +2049,14 @@
       <c r="M17" s="14"/>
       <c r="N17" s="2"/>
       <c r="O17" s="21" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="2">
         <v>3001</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="14" t="s">
         <v>44</v>
       </c>
       <c r="E18" s="19">
@@ -2092,7 +2097,7 @@
       <c r="C19" s="2">
         <v>3002</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="14" t="s">
         <v>81</v>
       </c>
       <c r="E19" s="19">
@@ -2116,14 +2121,14 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="2">
         <v>3003</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="14" t="s">
         <v>48</v>
       </c>
       <c r="E20" s="19">
@@ -2136,10 +2141,10 @@
         <v>5</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="2"/>
@@ -2147,14 +2152,14 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="4">
         <v>3004</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="23" t="s">
         <v>78</v>
       </c>
       <c r="E21" s="18">
@@ -2183,262 +2188,262 @@
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="2">
-        <v>4001</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="18">
+        <v>3005</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="19">
         <v>1</v>
       </c>
       <c r="F22" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22" s="2">
-        <v>2.0329999999999999</v>
+        <v>3.8330000000000002</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="2">
-        <v>10</v>
-      </c>
-      <c r="L22" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="M22" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="N22" s="2">
-        <v>1</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" s="20">
-        <v>1001</v>
+        <v>300501</v>
       </c>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="2">
-        <v>4002</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>82</v>
+        <v>4001</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="E23" s="18">
         <v>1</v>
       </c>
       <c r="F23" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" s="2">
-        <v>2.9670000000000001</v>
+        <v>2.0329999999999999</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="J23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="2">
+        <v>10</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1</v>
+      </c>
       <c r="O23" s="20">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="2">
-        <v>5001</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="19">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1</v>
+        <v>4002</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="18">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3</v>
       </c>
       <c r="G24" s="2">
-        <v>1.167</v>
+        <v>2.9670000000000001</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="2">
-        <v>0.55000000000000004</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="20">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="2">
-        <v>5002</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="18">
-        <v>1</v>
-      </c>
-      <c r="F25" s="4">
-        <v>3</v>
+        <v>5001</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="19">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
       </c>
       <c r="G25" s="2">
-        <v>2.5670000000000002</v>
+        <v>1.167</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="N25" s="2">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="O25" s="20">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="2">
-        <v>6001</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="19">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1</v>
+        <v>5002</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="18">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>3</v>
       </c>
       <c r="G26" s="2">
-        <v>1.4670000000000001</v>
+        <v>2.5670000000000002</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="2">
-        <v>0.6</v>
-      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="20">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="2">
-        <v>6002</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>84</v>
+        <v>6001</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="E27" s="19">
         <v>1</v>
       </c>
       <c r="F27" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G27" s="2">
-        <v>2.2669999999999999</v>
+        <v>1.4670000000000001</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="N27" s="2">
+        <v>0.6</v>
+      </c>
       <c r="O27" s="20">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="2">
-        <v>8001</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>63</v>
+        <v>6002</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="E28" s="19">
         <v>1</v>
       </c>
       <c r="F28" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28" s="2">
         <v>2.2669999999999999</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>75</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="N28" s="2">
-        <v>1</v>
-      </c>
-      <c r="O28" s="20" t="s">
-        <v>113</v>
+      <c r="N28" s="2"/>
+      <c r="O28" s="20">
+        <v>1002</v>
       </c>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="2">
-        <v>8002</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>85</v>
+        <v>8001</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="E29" s="19">
         <v>1</v>
       </c>
       <c r="F29" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29" s="2">
-        <v>4</v>
+        <v>2.2669999999999999</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J29" s="14"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="N29" s="2">
+        <v>1</v>
+      </c>
       <c r="O29" s="20" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="2">
-        <v>8003</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>64</v>
+        <v>8002</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="E30" s="19">
         <v>1</v>
@@ -2447,13 +2452,13 @@
         <v>3</v>
       </c>
       <c r="G30" s="2">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="J30" s="14"/>
       <c r="K30" s="2"/>
@@ -2461,144 +2466,206 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="20" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C31" s="4">
+      <c r="C31" s="2">
+        <v>8003</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="19">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>3</v>
+      </c>
+      <c r="G31" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J31" s="14"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="20">
+        <v>800301</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C32" s="4">
         <v>8004</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E32" s="18">
         <v>2</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F32" s="4">
         <v>3</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G32" s="2">
         <v>12.133333333333333</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I31" s="23" t="s">
+      <c r="I32" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="J31" s="23"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="20">
+      <c r="J32" s="23"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="20">
         <v>1004</v>
-      </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C32" s="2">
-        <v>9001</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-      <c r="F32" s="2">
-        <v>2</v>
-      </c>
-      <c r="G32" s="2">
-        <v>2.1669999999999998</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="K32" s="2">
-        <v>10</v>
-      </c>
-      <c r="L32" s="2">
-        <v>2</v>
-      </c>
-      <c r="M32" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="N32" s="2">
-        <v>1.667</v>
-      </c>
-      <c r="O32" s="20">
-        <v>1001</v>
       </c>
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C33" s="2">
-        <v>9002</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2">
+        <v>8005</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="19">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4">
         <v>3</v>
       </c>
       <c r="G33" s="2">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
+        <v>43</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="20">
+      <c r="O33" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C34" s="2">
+        <v>9001</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2</v>
+      </c>
+      <c r="G34" s="2">
+        <v>2.1669999999999998</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34" s="2">
+        <v>10</v>
+      </c>
+      <c r="L34" s="2">
+        <v>2</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="N34" s="2">
+        <v>1.667</v>
+      </c>
+      <c r="O34" s="20">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C35" s="2">
+        <v>9002</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>3</v>
+      </c>
+      <c r="G35" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="20">
         <v>1002</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C34" s="4">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C36" s="4">
         <v>200001</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4">
-        <v>1</v>
-      </c>
-      <c r="F34" s="4">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4">
         <v>0</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G36" s="4">
         <v>0</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H36" s="4">
         <v>0</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I36" s="23">
         <v>0</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J36" s="23">
         <v>0</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K36" s="4">
         <v>0</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L36" s="4">
         <v>0</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M36" s="4">
         <v>0</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N36" s="4">
         <v>0</v>
       </c>
-      <c r="O34" s="4">
+      <c r="O36" s="4">
         <v>200001</v>
       </c>
     </row>

--- a/config/excel/SkillTimeline.xlsx
+++ b/config/excel/SkillTimeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED7846A-F2EC-4FF7-98B4-12F52A2FFCAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D15DD5-39AA-44EB-899F-D49D5B22DECF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTimeLine" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="151">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -629,6 +629,52 @@
   </si>
   <si>
     <t>100401,100401,100401,100401,100402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2101101,2101102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-天赋A1-传送至友军身旁，对周围3米内所有友军生成【护盾】效果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2101201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-天赋B1-通过移动经过【石柱】1米范围内时，战技2技能CD重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-天赋A1-战技1使用后，【嘲讽】自身周围3米范围内的敌方目标，使其在接下来的20秒内，只能使用普通攻击攻击自身。同时自身获得【烈焰铠甲】效果，持续20秒，期间火抗提升50%，自身受到伤害降低30%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-天赋B1-战技2使用时，对受击目标产生【烈焰标记】，持续期间每次受到【烈焰光环】的攻击都会附加其生命上限2%的伤害。（标记持续30秒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2201101,2201102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2201201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-天赋A1</t>
+  </si>
+  <si>
+    <t>梅林-天赋B1</t>
+  </si>
+  <si>
+    <t>洛基-天赋A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基-天赋B1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -813,7 +859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -884,6 +930,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1166,8 +1215,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:O36" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="C1:O36" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:O45" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="C1:O45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TimeLineID" dataDxfId="12"/>
     <tableColumn id="7" xr3:uid="{6EC15DF4-B9C6-44B1-9114-5D0E6483D93B}" name="备注" dataDxfId="11"/>
@@ -1450,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2632,9 +2681,11 @@
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C36" s="4">
-        <v>200001</v>
-      </c>
-      <c r="D36" s="4"/>
+        <v>21011</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>140</v>
+      </c>
       <c r="E36" s="4">
         <v>1</v>
       </c>
@@ -2665,9 +2716,326 @@
       <c r="N36" s="4">
         <v>0</v>
       </c>
-      <c r="O36" s="4">
-        <v>200001</v>
-      </c>
+      <c r="O36" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C37" s="2">
+        <v>21012</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="23">
+        <v>0</v>
+      </c>
+      <c r="J37" s="23">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0</v>
+      </c>
+      <c r="O37" s="24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C38" s="2">
+        <v>22011</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="23">
+        <v>0</v>
+      </c>
+      <c r="J38" s="23">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
+        <v>0</v>
+      </c>
+      <c r="O38" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C39" s="2">
+        <v>22012</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="23">
+        <v>0</v>
+      </c>
+      <c r="J39" s="23">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0</v>
+      </c>
+      <c r="N39" s="4">
+        <v>0</v>
+      </c>
+      <c r="O39" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C40" s="4">
+        <v>23011</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="23">
+        <v>0</v>
+      </c>
+      <c r="J40" s="23">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0</v>
+      </c>
+      <c r="N40" s="4">
+        <v>0</v>
+      </c>
+      <c r="O40" s="4">
+        <v>2301101</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C41" s="2">
+        <v>23012</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="23">
+        <v>0</v>
+      </c>
+      <c r="J41" s="23">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0</v>
+      </c>
+      <c r="M41" s="4">
+        <v>0</v>
+      </c>
+      <c r="N41" s="4">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>2301201</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C42" s="2">
+        <v>28011</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="23">
+        <v>0</v>
+      </c>
+      <c r="J42" s="23">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <v>0</v>
+      </c>
+      <c r="L42" s="4">
+        <v>0</v>
+      </c>
+      <c r="M42" s="4">
+        <v>0</v>
+      </c>
+      <c r="N42" s="4">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2">
+        <v>2801101</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C43" s="2">
+        <v>28012</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="23">
+        <v>0</v>
+      </c>
+      <c r="J43" s="23">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0</v>
+      </c>
+      <c r="M43" s="4">
+        <v>0</v>
+      </c>
+      <c r="N43" s="4">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <v>2801201</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillTimeline.xlsx
+++ b/config/excel/SkillTimeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D15DD5-39AA-44EB-899F-D49D5B22DECF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CEA9C9-8F79-4627-98AA-AD5FFF8A8CD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1502,7 +1502,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2316,7 +2316,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G24" s="2">
         <v>2.9670000000000001</v>
@@ -2331,7 +2331,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="20">
-        <v>1002</v>
+        <v>400201</v>
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.2">

--- a/config/excel/SkillTimeline.xlsx
+++ b/config/excel/SkillTimeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CEA9C9-8F79-4627-98AA-AD5FFF8A8CD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF711B3D-CD6F-4C9D-9F52-7FA8EB142042}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTimeLine" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="156">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,14 +200,6 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男主-普攻1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男主-普攻2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -279,9 +271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fx_PLMXS_atk_slash2</t>
-  </si>
-  <si>
     <t>蝙蝠-普攻1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -596,10 +585,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>200501,200501,200501,200501,200502</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Merlin_attack2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -675,6 +660,41 @@
   </si>
   <si>
     <t>洛基-天赋B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-普攻1-分拆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-普攻2-分拆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk_slash2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_atk1</t>
+  </si>
+  <si>
+    <t>Monster_atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史莱姆-召唤小怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900311,900312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200501,200502,200503,200504,200505</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,7 +743,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -752,6 +772,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor theme="4" tint="0.79995117038483843"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -859,7 +885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -931,6 +957,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1501,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1539,10 +1580,10 @@
         <v>35</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>17</v>
@@ -1560,16 +1601,16 @@
         <v>33</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>24</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="85.5" x14ac:dyDescent="0.2">
@@ -1579,10 +1620,10 @@
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
       <c r="E2" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>23</v>
@@ -1591,25 +1632,25 @@
         <v>34</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>29</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1621,7 +1662,7 @@
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>22</v>
@@ -1642,16 +1683,16 @@
         <v>31</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="78" customHeight="1" x14ac:dyDescent="0.2">
@@ -1663,10 +1704,10 @@
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>91</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>17</v>
@@ -1675,17 +1716,17 @@
         <v>16</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
       <c r="N4" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1715,7 +1756,7 @@
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>21</v>
@@ -1736,16 +1777,16 @@
         <v>27</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1753,7 +1794,7 @@
         <v>1001</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E7" s="18">
         <v>1</v>
@@ -1762,34 +1803,34 @@
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2">
-        <v>0.63329999999999997</v>
+        <v>0.36670000000000003</v>
       </c>
       <c r="O7" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2">
         <v>1002</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E8" s="18">
         <v>1</v>
@@ -1801,10 +1842,10 @@
         <v>1.633</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="2"/>
@@ -1812,18 +1853,18 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C9" s="2">
         <v>1003</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E9" s="18">
         <v>1</v>
@@ -1835,10 +1876,10 @@
         <v>2.133</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="2"/>
@@ -1846,7 +1887,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -1854,7 +1895,7 @@
         <v>1004</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E10" s="18">
         <v>2</v>
@@ -1866,10 +1907,10 @@
         <v>5.367</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="2"/>
@@ -1885,7 +1926,7 @@
         <v>1005</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E11" s="19">
         <v>1</v>
@@ -1897,10 +1938,10 @@
         <v>4.6333000000000002</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1908,7 +1949,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1916,7 +1957,7 @@
         <v>20011</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="E12" s="19">
         <v>1</v>
@@ -1925,20 +1966,20 @@
         <v>1</v>
       </c>
       <c r="G12" s="2">
-        <v>1</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2">
-        <v>0.1</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="O12" s="20">
         <v>200111</v>
@@ -1949,7 +1990,7 @@
         <v>20012</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="E13" s="19">
         <v>1</v>
@@ -1964,7 +2005,7 @@
         <v>20</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="2"/>
@@ -1982,7 +2023,7 @@
         <v>2002</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E14" s="18">
         <v>1</v>
@@ -1994,10 +2035,10 @@
         <v>2.8330000000000002</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="2"/>
@@ -2005,7 +2046,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -2013,7 +2054,7 @@
         <v>2003</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" s="18">
         <v>1</v>
@@ -2025,10 +2066,10 @@
         <v>2.9</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
@@ -2036,7 +2077,7 @@
       <c r="M15" s="14"/>
       <c r="N15" s="2"/>
       <c r="O15" s="21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -2044,7 +2085,7 @@
         <v>2004</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E16" s="19">
         <v>2</v>
@@ -2056,10 +2097,10 @@
         <v>7.3330000000000002</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J16" s="14"/>
       <c r="K16" s="2"/>
@@ -2067,7 +2108,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.2">
@@ -2075,7 +2116,7 @@
         <v>2005</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E17" s="19">
         <v>1</v>
@@ -2087,10 +2128,10 @@
         <v>2.9</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
@@ -2098,7 +2139,7 @@
       <c r="M17" s="14"/>
       <c r="N17" s="2"/>
       <c r="O17" s="21" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.2">
@@ -2106,7 +2147,7 @@
         <v>3001</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E18" s="19">
         <v>1</v>
@@ -2118,13 +2159,13 @@
         <v>2</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="14" t="s">
-        <v>47</v>
-      </c>
       <c r="J18" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K18" s="2">
         <v>10</v>
@@ -2147,7 +2188,7 @@
         <v>3002</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E19" s="19">
         <v>1</v>
@@ -2159,10 +2200,10 @@
         <v>3.8330000000000002</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="2"/>
@@ -2170,7 +2211,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.2">
@@ -2178,7 +2219,7 @@
         <v>3003</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E20" s="19">
         <v>1</v>
@@ -2187,13 +2228,13 @@
         <v>3</v>
       </c>
       <c r="G20" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="2"/>
@@ -2201,7 +2242,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.2">
@@ -2209,7 +2250,7 @@
         <v>3004</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E21" s="18">
         <v>2</v>
@@ -2221,10 +2262,10 @@
         <v>6.7</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J21" s="23"/>
       <c r="K21" s="4"/>
@@ -2240,7 +2281,7 @@
         <v>3005</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E22" s="19">
         <v>1</v>
@@ -2252,10 +2293,10 @@
         <v>3.8330000000000002</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -2271,7 +2312,7 @@
         <v>4001</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E23" s="18">
         <v>1</v>
@@ -2283,11 +2324,11 @@
         <v>2.0329999999999999</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K23" s="2">
         <v>10</v>
@@ -2306,31 +2347,33 @@
       </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C24" s="2">
+      <c r="C24" s="25">
         <v>4002</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="18">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="D24" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="29">
+        <v>1</v>
+      </c>
+      <c r="F24" s="29">
+        <v>3</v>
+      </c>
+      <c r="G24" s="25">
         <v>2.9670000000000001</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="20">
+      <c r="H24" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="J24" s="26"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="27">
         <v>400201</v>
       </c>
     </row>
@@ -2339,7 +2382,7 @@
         <v>5001</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E25" s="19">
         <v>1</v>
@@ -2351,7 +2394,7 @@
         <v>1.167</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -2370,7 +2413,7 @@
         <v>5002</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E26" s="18">
         <v>1</v>
@@ -2382,7 +2425,7 @@
         <v>2.5670000000000002</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -2399,7 +2442,7 @@
         <v>6001</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E27" s="19">
         <v>1</v>
@@ -2411,7 +2454,7 @@
         <v>1.4670000000000001</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
@@ -2430,7 +2473,7 @@
         <v>6002</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E28" s="19">
         <v>1</v>
@@ -2442,7 +2485,7 @@
         <v>2.2669999999999999</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -2459,7 +2502,7 @@
         <v>8001</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E29" s="19">
         <v>1</v>
@@ -2471,10 +2514,10 @@
         <v>2.2669999999999999</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J29" s="14"/>
       <c r="K29" s="2"/>
@@ -2484,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="O29" s="20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.2">
@@ -2492,7 +2535,7 @@
         <v>8002</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E30" s="19">
         <v>1</v>
@@ -2504,10 +2547,10 @@
         <v>4</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J30" s="14"/>
       <c r="K30" s="2"/>
@@ -2515,7 +2558,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.2">
@@ -2523,7 +2566,7 @@
         <v>8003</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E31" s="19">
         <v>1</v>
@@ -2535,10 +2578,10 @@
         <v>2.8</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J31" s="14"/>
       <c r="K31" s="2"/>
@@ -2554,7 +2597,7 @@
         <v>8004</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E32" s="18">
         <v>2</v>
@@ -2566,10 +2609,10 @@
         <v>12.133333333333333</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J32" s="23"/>
       <c r="K32" s="4"/>
@@ -2585,7 +2628,7 @@
         <v>8005</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E33" s="19">
         <v>1</v>
@@ -2597,10 +2640,10 @@
         <v>4</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -2608,7 +2651,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="3:15" x14ac:dyDescent="0.2">
@@ -2616,7 +2659,7 @@
         <v>9001</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
@@ -2628,11 +2671,11 @@
         <v>2.1669999999999998</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I34" s="14"/>
       <c r="J34" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K34" s="2">
         <v>10</v>
@@ -2647,96 +2690,88 @@
         <v>1.667</v>
       </c>
       <c r="O34" s="20">
-        <v>1001</v>
+        <v>900111</v>
       </c>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C35" s="2">
+      <c r="C35" s="25">
         <v>9002</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2">
+      <c r="D35" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="25">
+        <v>1</v>
+      </c>
+      <c r="F35" s="25">
         <v>3</v>
       </c>
-      <c r="G35" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="20">
-        <v>1002</v>
+      <c r="G35" s="25">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="J35" s="26"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="27">
+        <v>900211</v>
       </c>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C36" s="4">
+      <c r="C36" s="25">
+        <v>9003</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E36" s="25">
+        <v>1</v>
+      </c>
+      <c r="F36" s="29">
+        <v>3</v>
+      </c>
+      <c r="G36" s="25">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="I36" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C37" s="4">
         <v>21011</v>
       </c>
-      <c r="D36" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="E36" s="4">
-        <v>1</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4">
-        <v>0</v>
-      </c>
-      <c r="H36" s="4">
-        <v>0</v>
-      </c>
-      <c r="I36" s="23">
-        <v>0</v>
-      </c>
-      <c r="J36" s="23">
-        <v>0</v>
-      </c>
-      <c r="K36" s="4">
-        <v>0</v>
-      </c>
-      <c r="L36" s="4">
-        <v>0</v>
-      </c>
-      <c r="M36" s="4">
-        <v>0</v>
-      </c>
-      <c r="N36" s="4">
-        <v>0</v>
-      </c>
-      <c r="O36" s="24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C37" s="2">
-        <v>21012</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E37" s="2">
-        <v>1</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2">
+      <c r="D37" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
         <v>0</v>
       </c>
       <c r="I37" s="23">
@@ -2758,15 +2793,15 @@
         <v>0</v>
       </c>
       <c r="O37" s="24" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C38" s="2">
-        <v>22011</v>
+        <v>21012</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E38" s="2">
         <v>1</v>
@@ -2798,144 +2833,144 @@
       <c r="N38" s="4">
         <v>0</v>
       </c>
-      <c r="O38" s="20" t="s">
-        <v>145</v>
+      <c r="O38" s="24" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C39" s="2">
+        <v>22011</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="23">
+        <v>0</v>
+      </c>
+      <c r="J39" s="23">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0</v>
+      </c>
+      <c r="N39" s="4">
+        <v>0</v>
+      </c>
+      <c r="O39" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C40" s="2">
         <v>22012</v>
       </c>
-      <c r="D39" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0</v>
-      </c>
-      <c r="G39" s="2">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0</v>
-      </c>
-      <c r="I39" s="23">
-        <v>0</v>
-      </c>
-      <c r="J39" s="23">
-        <v>0</v>
-      </c>
-      <c r="K39" s="4">
-        <v>0</v>
-      </c>
-      <c r="L39" s="4">
-        <v>0</v>
-      </c>
-      <c r="M39" s="4">
-        <v>0</v>
-      </c>
-      <c r="N39" s="4">
-        <v>0</v>
-      </c>
-      <c r="O39" s="20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C40" s="4">
+      <c r="D40" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="23">
+        <v>0</v>
+      </c>
+      <c r="J40" s="23">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0</v>
+      </c>
+      <c r="N40" s="4">
+        <v>0</v>
+      </c>
+      <c r="O40" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C41" s="4">
         <v>23011</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E40" s="4">
-        <v>1</v>
-      </c>
-      <c r="F40" s="4">
-        <v>0</v>
-      </c>
-      <c r="G40" s="2">
-        <v>0</v>
-      </c>
-      <c r="H40" s="2">
-        <v>0</v>
-      </c>
-      <c r="I40" s="23">
-        <v>0</v>
-      </c>
-      <c r="J40" s="23">
-        <v>0</v>
-      </c>
-      <c r="K40" s="4">
-        <v>0</v>
-      </c>
-      <c r="L40" s="4">
-        <v>0</v>
-      </c>
-      <c r="M40" s="4">
-        <v>0</v>
-      </c>
-      <c r="N40" s="4">
-        <v>0</v>
-      </c>
-      <c r="O40" s="4">
+      <c r="D41" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="23">
+        <v>0</v>
+      </c>
+      <c r="J41" s="23">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0</v>
+      </c>
+      <c r="M41" s="4">
+        <v>0</v>
+      </c>
+      <c r="N41" s="4">
+        <v>0</v>
+      </c>
+      <c r="O41" s="4">
         <v>2301101</v>
-      </c>
-    </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C41" s="2">
-        <v>23012</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-      <c r="F41" s="4">
-        <v>0</v>
-      </c>
-      <c r="G41" s="2">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
-      <c r="I41" s="23">
-        <v>0</v>
-      </c>
-      <c r="J41" s="23">
-        <v>0</v>
-      </c>
-      <c r="K41" s="4">
-        <v>0</v>
-      </c>
-      <c r="L41" s="4">
-        <v>0</v>
-      </c>
-      <c r="M41" s="4">
-        <v>0</v>
-      </c>
-      <c r="N41" s="4">
-        <v>0</v>
-      </c>
-      <c r="O41" s="2">
-        <v>2301201</v>
       </c>
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C42" s="2">
-        <v>28011</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>149</v>
+        <v>23012</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="4">
         <v>0</v>
       </c>
       <c r="G42" s="2">
@@ -2963,64 +2998,90 @@
         <v>0</v>
       </c>
       <c r="O42" s="2">
-        <v>2801101</v>
+        <v>2301201</v>
       </c>
     </row>
     <row r="43" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C43" s="2">
+        <v>28011</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="23">
+        <v>0</v>
+      </c>
+      <c r="J43" s="23">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0</v>
+      </c>
+      <c r="M43" s="4">
+        <v>0</v>
+      </c>
+      <c r="N43" s="4">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <v>2801101</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C44" s="2">
         <v>28012</v>
       </c>
-      <c r="D43" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0</v>
-      </c>
-      <c r="G43" s="2">
-        <v>0</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
-      <c r="I43" s="23">
-        <v>0</v>
-      </c>
-      <c r="J43" s="23">
-        <v>0</v>
-      </c>
-      <c r="K43" s="4">
-        <v>0</v>
-      </c>
-      <c r="L43" s="4">
-        <v>0</v>
-      </c>
-      <c r="M43" s="4">
-        <v>0</v>
-      </c>
-      <c r="N43" s="4">
-        <v>0</v>
-      </c>
-      <c r="O43" s="2">
+      <c r="D44" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="23">
+        <v>0</v>
+      </c>
+      <c r="J44" s="23">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0</v>
+      </c>
+      <c r="M44" s="4">
+        <v>0</v>
+      </c>
+      <c r="N44" s="4">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
         <v>2801201</v>
       </c>
-    </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C45" s="4"/>

--- a/config/excel/SkillTimeline.xlsx
+++ b/config/excel/SkillTimeline.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\tags\tag_20210525\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF711B3D-CD6F-4C9D-9F52-7FA8EB142042}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA9C7A5-525B-467F-811D-161B7CB071C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTimeLine" sheetId="1" r:id="rId1"/>
@@ -1542,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1839,7 +1839,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="2">
-        <v>1.633</v>
+        <v>1.2</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>117</v>
@@ -1873,7 +1873,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="2">
-        <v>2.133</v>
+        <v>1.8</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>110</v>
@@ -1935,7 +1935,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="2">
-        <v>4.6333000000000002</v>
+        <v>3.8</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>123</v>
@@ -2032,7 +2032,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="4">
-        <v>2.8330000000000002</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>41</v>
@@ -2063,7 +2063,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="4">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>110</v>
@@ -2125,7 +2125,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="4">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>110</v>
@@ -2197,7 +2197,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="2">
-        <v>3.8330000000000002</v>
+        <v>3.5</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>47</v>
@@ -2228,7 +2228,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="2">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>110</v>
@@ -2290,7 +2290,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="2">
-        <v>3.8330000000000002</v>
+        <v>4</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>110</v>
@@ -2544,7 +2544,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="2">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>63</v>
@@ -2575,7 +2575,7 @@
         <v>3</v>
       </c>
       <c r="G31" s="2">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>110</v>
@@ -2637,7 +2637,7 @@
         <v>3</v>
       </c>
       <c r="G33" s="2">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>41</v>

--- a/config/excel/SkillTimeline.xlsx
+++ b/config/excel/SkillTimeline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\tags\tag_20210525\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA9C7A5-525B-467F-811D-161B7CB071C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6B7A81-1329-4D72-A904-2665592FB116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -573,10 +573,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Waerjili_attack1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>200301,200301,200301,200301,200302</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -695,6 +691,10 @@
   </si>
   <si>
     <t>200501,200502,200503,200504,200505</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waerjili_attack1_03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1542,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1941,7 +1941,7 @@
         <v>123</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1949,7 +1949,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1957,7 +1957,7 @@
         <v>20011</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E12" s="19">
         <v>1</v>
@@ -1990,7 +1990,7 @@
         <v>20012</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E13" s="19">
         <v>1</v>
@@ -2005,7 +2005,7 @@
         <v>20</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="2"/>
@@ -2077,7 +2077,7 @@
       <c r="M15" s="14"/>
       <c r="N15" s="2"/>
       <c r="O15" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -2116,7 +2116,7 @@
         <v>2005</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E17" s="19">
         <v>1</v>
@@ -2139,7 +2139,7 @@
       <c r="M17" s="14"/>
       <c r="N17" s="2"/>
       <c r="O17" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.2">
@@ -2234,7 +2234,7 @@
         <v>110</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="2"/>
@@ -2242,7 +2242,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.2">
@@ -2281,7 +2281,7 @@
         <v>3005</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E22" s="19">
         <v>1</v>
@@ -2296,7 +2296,7 @@
         <v>110</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -2366,7 +2366,7 @@
         <v>55</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J24" s="26"/>
       <c r="K24" s="25"/>
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="O29" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.2">
@@ -2558,7 +2558,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.2">
@@ -2628,7 +2628,7 @@
         <v>8005</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E33" s="19">
         <v>1</v>
@@ -2651,7 +2651,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="3:15" x14ac:dyDescent="0.2">
@@ -2713,7 +2713,7 @@
         <v>102</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J35" s="26"/>
       <c r="K35" s="25"/>
@@ -2729,7 +2729,7 @@
         <v>9003</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E36" s="25">
         <v>1</v>
@@ -2741,10 +2741,10 @@
         <v>2.3330000000000002</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J36" s="25"/>
       <c r="K36" s="25"/>
@@ -2752,7 +2752,7 @@
       <c r="M36" s="25"/>
       <c r="N36" s="25"/>
       <c r="O36" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="3:15" x14ac:dyDescent="0.2">
@@ -2760,7 +2760,7 @@
         <v>21011</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E37" s="4">
         <v>1</v>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.2">
@@ -2801,7 +2801,7 @@
         <v>21012</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E38" s="2">
         <v>1</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.2">
@@ -2842,7 +2842,7 @@
         <v>22011</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E39" s="2">
         <v>1</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="3:15" x14ac:dyDescent="0.2">
@@ -2883,7 +2883,7 @@
         <v>22012</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="3:15" x14ac:dyDescent="0.2">
@@ -2924,7 +2924,7 @@
         <v>23011</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E41" s="4">
         <v>1</v>
@@ -2965,7 +2965,7 @@
         <v>23012</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
@@ -3006,7 +3006,7 @@
         <v>28011</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E43" s="2">
         <v>1</v>
@@ -3047,7 +3047,7 @@
         <v>28012</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E44" s="2">
         <v>1</v>
